--- a/tests/test_rtm.xlsx
+++ b/tests/test_rtm.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchukina\projects\fdr\tests\unit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuki\projects\fdr\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE288E0-560E-47F9-A751-EB7AA4656BA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DD4AD7-064C-4064-AADE-E6C09094FD3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_worksheet" sheetId="21" r:id="rId1"/>
     <sheet name="Procedure Based Requirements" sheetId="22" r:id="rId2"/>
+    <sheet name="test_validation" sheetId="23" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Procedure Based Requirements'!$A$1:$O$1</definedName>
@@ -24,19 +25,38 @@
     <definedName name="rngRequirements" localSheetId="1">#REF!</definedName>
     <definedName name="rngRequirements">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4AB33BBD-8845-41EF-A55D-07BBCE08DB10}</author>
+  </authors>
+  <commentList>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{4AB33BBD-8845-41EF-A55D-07BBCE08DB10}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    fail: val_cell_not_empty</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -84,13 +104,43 @@
   <si>
     <t>CTQ?
 Yes, No, N/A</t>
+  </si>
+  <si>
+    <t>PassOrFail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>BodyIndex</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>val_cells_not_empty</t>
+  </si>
+  <si>
+    <t>greet</t>
+  </si>
+  <si>
+    <t>val_column_sort</t>
+  </si>
+  <si>
+    <t>val_column_exist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,8 +216,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +269,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -293,7 +367,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -303,8 +377,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,11 +401,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
+    <cellStyle name="Bad" xfId="8" builtinId="27"/>
     <cellStyle name="Calculation" xfId="2" builtinId="22" hidden="1"/>
     <cellStyle name="Check Cell" xfId="4" builtinId="23" hidden="1"/>
     <cellStyle name="Explanatory Text" xfId="5" builtinId="53" hidden="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20" hidden="1"/>
     <cellStyle name="Linked Cell" xfId="3" builtinId="24" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,6 +427,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Jonathan Chukinas" id="{BA95EFCC-E39B-4FD7-9BEE-F448F9FA0C93}" userId="a10c016a9ad732b9" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -643,21 +730,29 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="J3" dT="2019-07-29T20:42:57.38" personId="{BA95EFCC-E39B-4FD7-9BEE-F448F9FA0C93}" id="{4AB33BBD-8845-41EF-A55D-07BBCE08DB10}">
+    <text>fail: val_cell_not_empty</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="3" customWidth="1"/>
-    <col min="2" max="7" width="4.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="7" width="16.28515625" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="21.85546875" customWidth="1"/>
     <col min="9" max="9" width="61.5703125" style="4" customWidth="1"/>
     <col min="10" max="10" width="33.42578125" customWidth="1"/>
@@ -669,179 +764,241 @@
     <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
         <f>_xlfn.CONCAT(A1, " value")</f>
         <v>ID value</v>
       </c>
-      <c r="B2" s="3" t="str">
-        <f t="shared" ref="B2:O3" si="0">_xlfn.CONCAT(B1, " value")</f>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:O2" si="0">_xlfn.CONCAT(B1, " value")</f>
         <v>Procedure Step value</v>
       </c>
-      <c r="C2" s="3" t="str">
+      <c r="C2" t="str">
         <f t="shared" si="0"/>
         <v>User Need value</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" t="str">
         <f t="shared" si="0"/>
         <v>Design Input value</v>
       </c>
-      <c r="E2" s="3" t="str">
+      <c r="E2" t="str">
         <f t="shared" si="0"/>
         <v>DO Solution L1 value</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="F2" t="str">
         <f t="shared" si="0"/>
         <v>DO Solution L2 value</v>
       </c>
-      <c r="G2" s="3" t="str">
+      <c r="G2" t="str">
         <f t="shared" si="0"/>
         <v>DO Solution L3 value</v>
       </c>
-      <c r="H2" s="3" t="str">
+      <c r="H2" t="str">
         <f t="shared" si="0"/>
         <v>Cascade Level value</v>
       </c>
-      <c r="I2" s="3" t="str">
+      <c r="I2" t="str">
         <f t="shared" si="0"/>
         <v>Requirement Statement value</v>
       </c>
-      <c r="J2" s="3" t="str">
+      <c r="J2" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Requirement Rationale value</v>
       </c>
-      <c r="K2" s="3" t="str">
+      <c r="K2" t="str">
         <f t="shared" si="0"/>
         <v>Verification or
 Validation Strategy value</v>
       </c>
-      <c r="L2" s="3" t="str">
+      <c r="L2" t="str">
         <f t="shared" si="0"/>
         <v>Verification or Validation Results value</v>
       </c>
-      <c r="M2" s="3" t="str">
+      <c r="M2" t="str">
         <f t="shared" si="0"/>
         <v>Devices value</v>
       </c>
-      <c r="N2" s="3" t="str">
+      <c r="N2" t="str">
         <f t="shared" si="0"/>
         <v>Design Ouptut Feature
 (with CTQ ID #) value</v>
       </c>
-      <c r="O2" s="3" t="str">
+      <c r="O2" t="str">
         <f t="shared" si="0"/>
         <v>CTQ?
 Yes, No, N/A value</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="str">
-        <f>_xlfn.CONCAT(A2, " value")</f>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:I3" si="1">_xlfn.CONCAT(A1, " value")</f>
+        <v>ID value</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="1"/>
+        <v>Procedure Step value</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="1"/>
+        <v>User Need value</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>Design Input value</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="1"/>
+        <v>DO Solution L1 value</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="1"/>
+        <v>DO Solution L2 value</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v>DO Solution L3 value</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>Cascade Level value</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>Requirement Statement value</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:O4" si="2">_xlfn.CONCAT(K1, " value")</f>
+        <v>Verification or
+Validation Strategy value</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="2"/>
+        <v>Verification or Validation Results value</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="2"/>
+        <v>Devices value</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="2"/>
+        <v>Design Ouptut Feature
+(with CTQ ID #) value</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="2"/>
+        <v>CTQ?
+Yes, No, N/A value</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" ref="A4:I4" si="3">_xlfn.CONCAT(A2, " value")</f>
         <v>ID value value</v>
       </c>
-      <c r="B3" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="B4" t="str">
+        <f t="shared" si="3"/>
         <v>Procedure Step value value</v>
       </c>
-      <c r="C3" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="C4" t="str">
+        <f t="shared" si="3"/>
         <v>User Need value value</v>
       </c>
-      <c r="D3" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="D4" t="str">
+        <f t="shared" si="3"/>
         <v>Design Input value value</v>
       </c>
-      <c r="E3" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="E4" t="str">
+        <f t="shared" si="3"/>
         <v>DO Solution L1 value value</v>
       </c>
-      <c r="F3" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="F4" t="str">
+        <f t="shared" si="3"/>
         <v>DO Solution L2 value value</v>
       </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="G4" t="str">
+        <f t="shared" si="3"/>
         <v>DO Solution L3 value value</v>
       </c>
-      <c r="H3" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
         <v>Cascade Level value value</v>
       </c>
-      <c r="I3" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="I4" t="str">
+        <f t="shared" si="3"/>
         <v>Requirement Statement value value</v>
       </c>
-      <c r="J3" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="J4" s="8" t="str">
+        <f>_xlfn.CONCAT(J2, " value")</f>
         <v>Requirement Rationale value value</v>
       </c>
-      <c r="K3" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
         <v>Verification or
 Validation Strategy value value</v>
       </c>
-      <c r="L3" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="L4" t="str">
+        <f t="shared" si="2"/>
         <v>Verification or Validation Results value value</v>
       </c>
-      <c r="M3" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="M4" t="str">
+        <f t="shared" si="2"/>
         <v>Devices value value</v>
       </c>
-      <c r="N3" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="N4" t="str">
+        <f t="shared" si="2"/>
         <v>Design Ouptut Feature
 (with CTQ ID #) value value</v>
       </c>
-      <c r="O3" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="O4" t="str">
+        <f t="shared" si="2"/>
         <v>CTQ?
 Yes, No, N/A value value</v>
       </c>
@@ -853,6 +1010,7 @@
   <headerFooter>
     <oddFooter>&amp;CPage &amp;P of &amp;N&amp;RVersion 2.0</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1069,7 +1227,192 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F75445-3309-40FF-A033-8608838D7335}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A11" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <f>2*4</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Deliverable xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <Workstream xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <Project xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <OpCo xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45">DPS Trauma</OpCo>
+    <SharedWithUsers xmlns="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b">
+      <UserInfo>
+        <DisplayName>Dec, Brian [SYNNA]</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Conley, Jordan [SYNNA]</DisplayName>
+        <AccountId>6</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Tarczewski, John [DPYUS NON-J&amp;J]</DisplayName>
+        <AccountId>52</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Valenzuela, Jan [DPYUS]</DisplayName>
+        <AccountId>34</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <Archive xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45">false</Archive>
+    <MovetoWorkstream_x003f_ xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1078,7 +1421,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B2369C55104614D86A5ED6959977478" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c0e7eb4f9a047313f41567777b26d1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e53f4f12-70f6-49ff-8342-256ad4d5af45" xmlns:ns3="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21513b83e70fc08b789b5f083b414370" ns2:_="" ns3:_="">
     <xsd:import namespace="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
@@ -1357,42 +1700,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Deliverable xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <Workstream xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <Project xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <OpCo xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45">DPS Trauma</OpCo>
-    <SharedWithUsers xmlns="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b">
-      <UserInfo>
-        <DisplayName>Dec, Brian [SYNNA]</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Conley, Jordan [SYNNA]</DisplayName>
-        <AccountId>6</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Tarczewski, John [DPYUS NON-J&amp;J]</DisplayName>
-        <AccountId>52</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Valenzuela, Jan [DPYUS]</DisplayName>
-        <AccountId>34</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <Archive xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45">false</Archive>
-    <MovetoWorkstream_x003f_ xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6B224B-0E2C-48D8-BDA5-831DA84116C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EA3E94-102E-42ED-8307-567DE6417681}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1400,7 +1725,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB17CD09-13F0-4BBC-ACF0-5247DAC323D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1417,21 +1742,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6B224B-0E2C-48D8-BDA5-831DA84116C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tests/test_rtm.xlsx
+++ b/tests/test_rtm.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuki\projects\fdr\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DD4AD7-064C-4064-AADE-E6C09094FD3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744F717A-8B70-4B7D-A999-B4016E9D8FAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_worksheet" sheetId="21" r:id="rId1"/>
     <sheet name="Procedure Based Requirements" sheetId="22" r:id="rId2"/>
     <sheet name="test_validation" sheetId="23" r:id="rId3"/>
+    <sheet name="nonsense_fields" sheetId="26" r:id="rId4"/>
+    <sheet name="work_items" sheetId="25" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Procedure Based Requirements'!$A$1:$O$1</definedName>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -134,6 +136,54 @@
   </si>
   <si>
     <t>val_column_exist</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>grape</t>
+  </si>
+  <si>
+    <t>Verification or Validation Strategy</t>
+  </si>
+  <si>
+    <t>CTQ? Yes, No, N/A</t>
+  </si>
+  <si>
+    <t>Design Output Feature (with CTQ ID #)</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>one_entry</t>
+  </si>
+  <si>
+    <t>x_or_f</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>DO Solution L4</t>
   </si>
 </sst>
 </file>
@@ -380,7 +430,7 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,6 +454,10 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Bad" xfId="8" builtinId="27"/>
@@ -1019,10 +1073,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="B2" sqref="B2:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1032,11 +1086,11 @@
     <col min="8" max="8" width="21.85546875" customWidth="1"/>
     <col min="9" max="9" width="61.5703125" style="4" customWidth="1"/>
     <col min="10" max="10" width="33.42578125" customWidth="1"/>
-    <col min="11" max="11" width="32.140625" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" customWidth="1"/>
     <col min="12" max="12" width="25.7109375" customWidth="1"/>
     <col min="13" max="13" width="23.5703125" customWidth="1"/>
-    <col min="14" max="14" width="31.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="57.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.85546875" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1072,7 +1126,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>11</v>
@@ -1081,140 +1135,151 @@
         <v>12</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
-        <f>_xlfn.CONCAT(A1, " value")</f>
-        <v>ID value</v>
-      </c>
-      <c r="B2" s="3" t="str">
-        <f t="shared" ref="B2:O3" si="0">_xlfn.CONCAT(B1, " value")</f>
-        <v>Procedure Step value</v>
-      </c>
-      <c r="C2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>User Need value</v>
-      </c>
-      <c r="D2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Design Input value</v>
-      </c>
-      <c r="E2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DO Solution L1 value</v>
-      </c>
-      <c r="F2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DO Solution L2 value</v>
-      </c>
-      <c r="G2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DO Solution L3 value</v>
-      </c>
-      <c r="H2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Cascade Level value</v>
-      </c>
-      <c r="I2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Requirement Statement value</v>
-      </c>
-      <c r="J2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Requirement Rationale value</v>
-      </c>
-      <c r="K2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Verification or
-Validation Strategy value</v>
-      </c>
-      <c r="L2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Verification or Validation Results value</v>
-      </c>
-      <c r="M2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Devices value</v>
-      </c>
-      <c r="N2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Design Ouptut Feature
-(with CTQ ID #) value</v>
-      </c>
-      <c r="O2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>CTQ?
-Yes, No, N/A value</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="str">
-        <f>_xlfn.CONCAT(A2, " value")</f>
-        <v>ID value value</v>
-      </c>
-      <c r="B3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Procedure Step value value</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>User Need value value</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Design Input value value</v>
-      </c>
-      <c r="E3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DO Solution L1 value value</v>
-      </c>
-      <c r="F3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DO Solution L2 value value</v>
-      </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DO Solution L3 value value</v>
-      </c>
-      <c r="H3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Cascade Level value value</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Requirement Statement value value</v>
-      </c>
-      <c r="J3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Requirement Rationale value value</v>
-      </c>
-      <c r="K3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Verification or
-Validation Strategy value value</v>
-      </c>
-      <c r="L3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Verification or Validation Results value value</v>
-      </c>
-      <c r="M3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Devices value value</v>
-      </c>
-      <c r="N3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Design Ouptut Feature
-(with CTQ ID #) value value</v>
-      </c>
-      <c r="O3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>CTQ?
-Yes, No, N/A value value</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>2</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3</v>
+      </c>
+      <c r="M4" s="3">
+        <v>3</v>
+      </c>
+      <c r="N4" s="3">
+        <v>3</v>
+      </c>
+      <c r="O4" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1231,7 +1296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F75445-3309-40FF-A033-8608838D7335}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1377,51 +1442,667 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Deliverable xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <Workstream xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <Project xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <OpCo xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45">DPS Trauma</OpCo>
-    <SharedWithUsers xmlns="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b">
-      <UserInfo>
-        <DisplayName>Dec, Brian [SYNNA]</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Conley, Jordan [SYNNA]</DisplayName>
-        <AccountId>6</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Tarczewski, John [DPYUS NON-J&amp;J]</DisplayName>
-        <AccountId>52</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Valenzuela, Jan [DPYUS]</DisplayName>
-        <AccountId>34</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <Archive xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45">false</Archive>
-    <MovetoWorkstream_x003f_ xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E10630-D1E9-46DB-98CF-4A34D3F758E6}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34283C52-A606-4A91-BE38-3A1E2EFABC11}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="11" width="4.7109375" style="1" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>B2+1</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>A2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:B26" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C7" si="1">A3</f>
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f>B7</f>
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f>A6</f>
+        <v>4</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f>B6</f>
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <f>C6</f>
+        <v>3</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <f>C5</f>
+        <v>2</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12">
+        <v>11</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <f>C19</f>
+        <v>15</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <f>A20</f>
+        <v>18</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f>C17</f>
+        <v>11</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <f>A22</f>
+        <v>20</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:C26" si="2">A23</f>
+        <v>21</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B2369C55104614D86A5ED6959977478" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c0e7eb4f9a047313f41567777b26d1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e53f4f12-70f6-49ff-8342-256ad4d5af45" xmlns:ns3="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21513b83e70fc08b789b5f083b414370" ns2:_="" ns3:_="">
     <xsd:import namespace="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
@@ -1700,7 +2381,70 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Deliverable xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <Workstream xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <Project xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <OpCo xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45">DPS Trauma</OpCo>
+    <SharedWithUsers xmlns="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b">
+      <UserInfo>
+        <DisplayName>Dec, Brian [SYNNA]</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Conley, Jordan [SYNNA]</DisplayName>
+        <AccountId>6</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Tarczewski, John [DPYUS NON-J&amp;J]</DisplayName>
+        <AccountId>52</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Valenzuela, Jan [DPYUS]</DisplayName>
+        <AccountId>34</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <Archive xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45">false</Archive>
+    <MovetoWorkstream_x003f_ xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB17CD09-13F0-4BBC-ACF0-5247DAC323D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
+    <ds:schemaRef ds:uri="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6B224B-0E2C-48D8-BDA5-831DA84116C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1717,29 +2461,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EA3E94-102E-42ED-8307-567DE6417681}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB17CD09-13F0-4BBC-ACF0-5247DAC323D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
-    <ds:schemaRef ds:uri="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tests/test_rtm.xlsx
+++ b/tests/test_rtm.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuki\projects\fdr\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744F717A-8B70-4B7D-A999-B4016E9D8FAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E69056E-8D0D-4790-BAE2-5456AD58AB8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_worksheet" sheetId="21" r:id="rId1"/>
     <sheet name="Procedure Based Requirements" sheetId="22" r:id="rId2"/>
     <sheet name="test_validation" sheetId="23" r:id="rId3"/>
     <sheet name="nonsense_fields" sheetId="26" r:id="rId4"/>
-    <sheet name="work_items" sheetId="25" r:id="rId5"/>
+    <sheet name="cascade" sheetId="25" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Procedure Based Requirements'!$A$1:$O$1</definedName>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -184,6 +184,39 @@
   </si>
   <si>
     <t>DO Solution L4</t>
+  </si>
+  <si>
+    <t>PROCEDURE STEP</t>
+  </si>
+  <si>
+    <t>BUSINESS NEED</t>
+  </si>
+  <si>
+    <t>VOC USER NEED</t>
+  </si>
+  <si>
+    <t>RISK NEED</t>
+  </si>
+  <si>
+    <t>DESIGN INPUT</t>
+  </si>
+  <si>
+    <t>cascade_level_not_empty</t>
+  </si>
+  <si>
+    <t>cascade_level_matching</t>
+  </si>
+  <si>
+    <t>invalid input</t>
+  </si>
+  <si>
+    <t>cascade_level_valid_input</t>
+  </si>
+  <si>
+    <t>not_empty</t>
+  </si>
+  <si>
+    <t>DESIGN OUTPUT SOLUTION</t>
   </si>
 </sst>
 </file>
@@ -803,22 +836,22 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="3" customWidth="1"/>
-    <col min="2" max="7" width="16.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="61.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" customWidth="1"/>
-    <col min="11" max="11" width="32.140625" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" customWidth="1"/>
-    <col min="14" max="14" width="31.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="3" customWidth="1"/>
+    <col min="2" max="7" width="16.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="61.5546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="33.44140625" customWidth="1"/>
+    <col min="11" max="11" width="32.109375" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="13" width="23.5546875" customWidth="1"/>
+    <col min="14" max="14" width="31.109375" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -865,7 +898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>_xlfn.CONCAT(A1, " value")</f>
         <v>ID value</v>
@@ -930,7 +963,7 @@
 Yes, No, N/A value</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" ref="A3:I3" si="1">_xlfn.CONCAT(A1, " value")</f>
         <v>ID value</v>
@@ -992,7 +1025,7 @@
 Yes, No, N/A value</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" ref="A4:I4" si="3">_xlfn.CONCAT(A2, " value")</f>
         <v>ID value value</v>
@@ -1079,22 +1112,22 @@
       <selection activeCell="B2" sqref="B2:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="3" customWidth="1"/>
-    <col min="2" max="7" width="4.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="61.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" customWidth="1"/>
-    <col min="14" max="14" width="57.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="3" customWidth="1"/>
+    <col min="2" max="7" width="4.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="61.5546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="33.44140625" customWidth="1"/>
+    <col min="11" max="11" width="27.33203125" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="13" width="23.5546875" customWidth="1"/>
+    <col min="14" max="14" width="57.6640625" customWidth="1"/>
+    <col min="15" max="15" width="30.88671875" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1174,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1188,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1235,7 +1268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1300,16 +1333,16 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1326,7 +1359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1335,7 +1368,7 @@
       </c>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -1348,7 +1381,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>2</v>
@@ -1357,7 +1390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1366,7 +1399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1375,7 +1408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1387,7 +1420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1399,7 +1432,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1411,7 +1444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1424,7 +1457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1450,9 +1483,9 @@
       <selection activeCell="B2" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1466,7 +1499,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1480,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1494,7 +1527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1515,19 +1548,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34283C52-A606-4A91-BE38-3A1E2EFABC11}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="11" width="4.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="4.6640625" style="1" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1538,34 +1574,49 @@
         <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1581,11 +1632,26 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -1599,22 +1665,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:B26" si="0">A3+1</f>
         <v>2</v>
@@ -1633,11 +1714,26 @@
       <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1656,11 +1752,26 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1679,11 +1790,26 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1702,11 +1828,26 @@
       <c r="E7" t="b">
         <v>1</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1725,11 +1866,26 @@
       <c r="E8" t="b">
         <v>1</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1748,11 +1904,23 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1761,10 +1929,25 @@
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1782,11 +1965,23 @@
       <c r="E11" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1804,11 +1999,26 @@
       <c r="E12" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1825,11 +2035,23 @@
       <c r="E13" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1844,11 +2066,26 @@
       <c r="E14" t="b">
         <v>1</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1863,11 +2100,23 @@
       <c r="E15" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1882,11 +2131,26 @@
       <c r="E16" t="b">
         <v>1</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1903,11 +2167,26 @@
       <c r="E17" t="b">
         <v>1</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1916,10 +2195,25 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1936,11 +2230,26 @@
       <c r="E19" t="b">
         <v>1</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1953,19 +2262,31 @@
         <v>15</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1983,11 +2304,23 @@
       <c r="E21" t="b">
         <v>1</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2005,11 +2338,26 @@
       <c r="E22" t="b">
         <v>1</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2025,13 +2373,25 @@
         <v>1</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2049,11 +2409,23 @@
       <c r="E24" t="b">
         <v>1</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2071,11 +2443,23 @@
       <c r="E25" t="b">
         <v>1</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2093,16 +2477,38 @@
       <c r="E26" t="b">
         <v>1</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B2369C55104614D86A5ED6959977478" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c0e7eb4f9a047313f41567777b26d1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e53f4f12-70f6-49ff-8342-256ad4d5af45" xmlns:ns3="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21513b83e70fc08b789b5f083b414370" ns2:_="" ns3:_="">
     <xsd:import namespace="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
@@ -2381,7 +2787,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Deliverable xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
@@ -2416,16 +2822,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EA3E94-102E-42ED-8307-567DE6417681}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB17CD09-13F0-4BBC-ACF0-5247DAC323D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2444,27 +2849,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6B224B-0E2C-48D8-BDA5-831DA84116C8}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b"/>
+    <ds:schemaRef ds:uri="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EA3E94-102E-42ED-8307-567DE6417681}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tests/test_rtm.xlsx
+++ b/tests/test_rtm.xlsx
@@ -1,30 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuki\projects\fdr\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchukina\projects\rtm\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E69056E-8D0D-4790-BAE2-5456AD58AB8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34852E1-0DD3-4725-96BD-67F601E2D73F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_worksheet" sheetId="21" r:id="rId1"/>
-    <sheet name="Procedure Based Requirements" sheetId="22" r:id="rId2"/>
-    <sheet name="test_validation" sheetId="23" r:id="rId3"/>
-    <sheet name="nonsense_fields" sheetId="26" r:id="rId4"/>
-    <sheet name="cascade" sheetId="25" r:id="rId5"/>
+    <sheet name="Procedure Based Requirements" sheetId="27" r:id="rId2"/>
+    <sheet name="Procedure Based Requirements2" sheetId="22" r:id="rId3"/>
+    <sheet name="test_validation" sheetId="23" r:id="rId4"/>
+    <sheet name="nonsense_fields" sheetId="26" r:id="rId5"/>
+    <sheet name="cascade" sheetId="25" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Procedure Based Requirements'!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Procedure Based Requirements'!$A$1:$O$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Procedure Based Requirements2'!$A$1:$O$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">test_worksheet!$A$1:$O$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Procedure Based Requirements'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Procedure Based Requirements2'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">test_worksheet!$1:$1</definedName>
     <definedName name="rngRequirements" localSheetId="1">#REF!</definedName>
+    <definedName name="rngRequirements" localSheetId="2">#REF!</definedName>
     <definedName name="rngRequirements">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -58,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="293">
   <si>
     <t>ID</t>
   </si>
@@ -183,18 +187,12 @@
     <t>C</t>
   </si>
   <si>
-    <t>DO Solution L4</t>
-  </si>
-  <si>
     <t>PROCEDURE STEP</t>
   </si>
   <si>
     <t>BUSINESS NEED</t>
   </si>
   <si>
-    <t>VOC USER NEED</t>
-  </si>
-  <si>
     <t>RISK NEED</t>
   </si>
   <si>
@@ -216,14 +214,955 @@
     <t>not_empty</t>
   </si>
   <si>
-    <t>DESIGN OUTPUT SOLUTION</t>
+    <t>P010</t>
+  </si>
+  <si>
+    <t>P020</t>
+  </si>
+  <si>
+    <t>P010-001</t>
+  </si>
+  <si>
+    <t>P010-002</t>
+  </si>
+  <si>
+    <t>P010-003</t>
+  </si>
+  <si>
+    <t>P010-004</t>
+  </si>
+  <si>
+    <t>P010-005</t>
+  </si>
+  <si>
+    <t>P010-006</t>
+  </si>
+  <si>
+    <t>P010-007</t>
+  </si>
+  <si>
+    <t>P010-008</t>
+  </si>
+  <si>
+    <t>P010-009</t>
+  </si>
+  <si>
+    <t>P010-010</t>
+  </si>
+  <si>
+    <t>P020-002</t>
+  </si>
+  <si>
+    <t>P020-003</t>
+  </si>
+  <si>
+    <t>P020-004</t>
+  </si>
+  <si>
+    <t>P020-005</t>
+  </si>
+  <si>
+    <t>P020-006</t>
+  </si>
+  <si>
+    <t>P020-007</t>
+  </si>
+  <si>
+    <t>P020-008</t>
+  </si>
+  <si>
+    <t>P020-009</t>
+  </si>
+  <si>
+    <t>P020-010</t>
+  </si>
+  <si>
+    <t>P020-011</t>
+  </si>
+  <si>
+    <t>P020-012</t>
+  </si>
+  <si>
+    <t>P020-013</t>
+  </si>
+  <si>
+    <t>P020-014</t>
+  </si>
+  <si>
+    <t>non_root_ids_start_w_root_id</t>
+  </si>
+  <si>
+    <t>Prepare patient</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>P030</t>
+  </si>
+  <si>
+    <t>Reduce fracture</t>
+  </si>
+  <si>
+    <t>P040</t>
+  </si>
+  <si>
+    <t>Select implant sizes</t>
+  </si>
+  <si>
+    <t>P050</t>
+  </si>
+  <si>
+    <t>Prepare canal and insert nail</t>
+  </si>
+  <si>
+    <t>P060</t>
+  </si>
+  <si>
+    <t>Assemble insertion instruments to the nail.</t>
+  </si>
+  <si>
+    <t>P070</t>
+  </si>
+  <si>
+    <t>Prep for head element insertion</t>
+  </si>
+  <si>
+    <t>P070-010</t>
+  </si>
+  <si>
+    <t>USER NEED</t>
+  </si>
+  <si>
+    <t>Surgeon visualizes implant location prior to placement with maximum accuracy.
+OR
+Surgeon wants to insert head element with guided insertion.</t>
+  </si>
+  <si>
+    <t>VOC Summary…..</t>
+  </si>
+  <si>
+    <t>Validation strategy goes here…..</t>
+  </si>
+  <si>
+    <t>W/C #0000XXXXXX</t>
+  </si>
+  <si>
+    <t>Coupling Screw
+Helical Blade
+Screw
+Guide Wire</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>P070-020</t>
+  </si>
+  <si>
+    <t>Head element implants shall be compatible with existing 357.399 guide wire (to provide guided insertion).
+#MatingParts</t>
+  </si>
+  <si>
+    <t>Design Input rationale goes here…..</t>
+  </si>
+  <si>
+    <t>Design Input verification strategy goes here…..</t>
+  </si>
+  <si>
+    <t>Helical Blade
+Screw
+Guide Wire</t>
+  </si>
+  <si>
+    <t>P070-030</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>DESIGN SOLUTION</t>
+  </si>
+  <si>
+    <t>Helical blade cannulation has clearance of 0.02 to 0.05mm with guide wire OD at worst case conditions.</t>
+  </si>
+  <si>
+    <t>L1 Solution rationale goes here……</t>
+  </si>
+  <si>
+    <t>Verification strategy goes here……</t>
+  </si>
+  <si>
+    <t>Helical Blade
+Guide Wire</t>
+  </si>
+  <si>
+    <t>Blade HE Shaft:  Inner diameter (CTQ05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes
+</t>
+  </si>
+  <si>
+    <t>P070-040</t>
+  </si>
+  <si>
+    <t>Screw cannulation has clearance of 0.02 to 0.05mm with guide wire OD at worst case conditions.</t>
+  </si>
+  <si>
+    <t>Screw
+Guide Wire</t>
+  </si>
+  <si>
+    <t>Screw HE Shaft:  Inner diameter (CTQ06)</t>
+  </si>
+  <si>
+    <t>P070-050</t>
+  </si>
+  <si>
+    <t>Coupling screw shall be compatible with existing 357.399 guide wire (to provide guided insertion).
+#MatingParts</t>
+  </si>
+  <si>
+    <t>Coupling Screw
+Guide Wire</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>P070-060</t>
+  </si>
+  <si>
+    <t>Coupling screw cannulation has clearance of 0.02 to 0.05mm with guide wire OD at worst case conditions.</t>
+  </si>
+  <si>
+    <t>Coupling Screw:  Cannulation diameter (CTQ07)</t>
+  </si>
+  <si>
+    <t>P080</t>
+  </si>
+  <si>
+    <t>Measure for head element length</t>
+  </si>
+  <si>
+    <t>P090</t>
+  </si>
+  <si>
+    <t>Drill for head element</t>
+  </si>
+  <si>
+    <t>P090-010</t>
+  </si>
+  <si>
+    <t>Surgeon drills head element trajectory with maximum accuracy.
+OR
+Surgeon wants to drill pilot hole for implant insertion.</t>
+  </si>
+  <si>
+    <t>Guide Sleeve
+Drill Bit</t>
+  </si>
+  <si>
+    <t>P090-020</t>
+  </si>
+  <si>
+    <t>New guide sleeve shall be compatible with existing TFNA drill bits (03.037.021, 03.037.022).
+#MatingParts</t>
+  </si>
+  <si>
+    <t>P090-030</t>
+  </si>
+  <si>
+    <t>The ID of the guide sleeve has a clearance of 0.02 to 0.05mm with the OD of the lateral drill bits (03.037.021, 03.037.022) at worst case conditions.</t>
+  </si>
+  <si>
+    <t>Guide sleeve: Cannulation diameter (CTQ08)</t>
+  </si>
+  <si>
+    <t>P100</t>
+  </si>
+  <si>
+    <t>Tap for screw head element</t>
+  </si>
+  <si>
+    <t>P100-010</t>
+  </si>
+  <si>
+    <t>Surgeon taps for screw head element with maximum accuracy.
+OR
+Surgeon wants to tap pilot hole to prepare for screw insertion.</t>
+  </si>
+  <si>
+    <t>Guide Sleeve
+Tap</t>
+  </si>
+  <si>
+    <t>P100-020</t>
+  </si>
+  <si>
+    <t>New guide sleeve shall be compatible with the existing TFNA screw tap (03.037.027).
+#MatingParts</t>
+  </si>
+  <si>
+    <t>P100-030</t>
+  </si>
+  <si>
+    <t>The ID of the guide sleeve has a clearance of 0.02 to 0.05mm with the OD of the screw tap (03.037.027) at worst case conditions.</t>
+  </si>
+  <si>
+    <t>P110</t>
+  </si>
+  <si>
+    <t>Back table assembly of head element and instrument</t>
+  </si>
+  <si>
+    <t>P110-010</t>
+  </si>
+  <si>
+    <t>Scrub tech assembles implant to insertion instrument with maximum accuracy.
+-or-
+Scrub tech wants to assemble implant to instrument to prepare for implant insertion.</t>
+  </si>
+  <si>
+    <t>Blade Impactor Fine Adjust.
+Blade Impactor
+Screw Inserter
+Coupling Screw
+Helical Blade
+Screw</t>
+  </si>
+  <si>
+    <t>P110-020</t>
+  </si>
+  <si>
+    <t>Blade impactor shall only attach to the new helical blade implant and not attach to any other HEs (including existing TFNA implants).
+#MatingParts</t>
+  </si>
+  <si>
+    <t>Blade Impactor Fine Adjust.
+Blade Impactor
+Helical Blade
+TFNA Blade
+TFNA Screw</t>
+  </si>
+  <si>
+    <t>P110-030</t>
+  </si>
+  <si>
+    <t>Keyed flat feature prevents helical blade components (Shaft and Sleeve) from being assembled in the incorrect orientation (Shaft and Sleeve Component 180º off)</t>
+  </si>
+  <si>
+    <t>Helical Blade</t>
+  </si>
+  <si>
+    <t>P110-040</t>
+  </si>
+  <si>
+    <t>Blade impactor has a keyed feature (add type of feature) which matches the keyed feature that is unique to the telescoping helical blade.</t>
+  </si>
+  <si>
+    <t>P110-050</t>
+  </si>
+  <si>
+    <t>Blade Impactor has a keyed feature (add type of feature) that only attaches to helical blade in one orientation.</t>
+  </si>
+  <si>
+    <t>Blade Impactor Fine Adjust.
+Blade Impactor
+Helical Blade</t>
+  </si>
+  <si>
+    <t>P110-060</t>
+  </si>
+  <si>
+    <t>Screw inserter shall only attach to the new screw implant and not attach to any other HEs (including existing TFNA implants). 
+#MatingParts</t>
+  </si>
+  <si>
+    <t>Screw Inserter
+Screw
+TFNA Helical Blade
+TFNA Screw</t>
+  </si>
+  <si>
+    <t>P110-070</t>
+  </si>
+  <si>
+    <t>Keyed flat feature prevents screw components (Shaft and Sleeve) from being assembled in the incorrect orientation (Shaft and Sleeve Component 180º off)</t>
+  </si>
+  <si>
+    <t>Screw Inserter
+Screw</t>
+  </si>
+  <si>
+    <t>P110-080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screw inserter has a keyed feature (add type of feature) which matches the keyed feature that is unique to the telescoping screw head element.  </t>
+  </si>
+  <si>
+    <t>Screw
+TFNA Helical Blade
+TFNA Screw</t>
+  </si>
+  <si>
+    <t>P110-090</t>
+  </si>
+  <si>
+    <t>Screw Inserter has a keyed feature (add type of feature) that only attaches to Screw in one orientation.</t>
+  </si>
+  <si>
+    <t>P110-100</t>
+  </si>
+  <si>
+    <t>Coupling screw shall be tightened to implant with at least TBD Nm of torque.
+#MechProperties</t>
+  </si>
+  <si>
+    <t>Coupling Screw
+Helical Blade
+Screw</t>
+  </si>
+  <si>
+    <t>P110-110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupling screw has cross holes to mate with 321.170 Pin Wrench for assisted tightening or loosening to the TFNA telescoping head element. </t>
+  </si>
+  <si>
+    <t>Coupling Screw
+Pin Wrench</t>
+  </si>
+  <si>
+    <t>P110-120</t>
+  </si>
+  <si>
+    <t>Coupling screw threaded tip has at least 2.5mm engagement with HEs when assembled to screw inserter or blade impactor.</t>
+  </si>
+  <si>
+    <t>Blade Impactor Fine Adjust.
+Blade Impactor
+Coupling Screw
+Screw Inserter
+Helical Blade
+Screw</t>
+  </si>
+  <si>
+    <t>P110-130</t>
+  </si>
+  <si>
+    <t>Head element shall not collapse more than TBD mm during instrument assembly and insertion.
+#Function</t>
+  </si>
+  <si>
+    <t>Blade Impactor Fine Adjust.
+Blade Impactor
+Screw Inserter
+Helical Blade
+Screw</t>
+  </si>
+  <si>
+    <t>P110-140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screw inserter feature (add feature) holds implant to length to prevent collapse  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Screw Inserter 03.037.125:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Distal tip geometry (CTQ10)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Screw HE Shaft:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Lateral cut out feature
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Screw HE Sleeve:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Rack profile
+Lateral profile length
+Lateral flat profile</t>
+    </r>
+  </si>
+  <si>
+    <t>P110-150</t>
+  </si>
+  <si>
+    <t>Blade impactor feature (add feature) holds implant to length to prevent collapse</t>
+  </si>
+  <si>
+    <t>Blade Impactor FA 03.037.123:  Distal tip geometry
+Blade Impactor 03.037.124:  Distal tip geometry
+Blade HE Shaft:  Lateral cut out feature
+Blade HE Sleeve:  Rack profile
+Blade HE Sleeve:  Lateral profile length
+Blade HE Sleeve:  Lateral flat profile</t>
+  </si>
+  <si>
+    <t>P110-160</t>
+  </si>
+  <si>
+    <t>Packaging features (add features) prevent clip removal until the implant is assembled to the inserter/impactor.</t>
+  </si>
+  <si>
+    <t>Pkg. clip:  Retention feature</t>
+  </si>
+  <si>
+    <t>P110-170</t>
+  </si>
+  <si>
+    <t>Clearance opening of at least TBDmm diameter between the implant and the inserter/impactor while the device is still inside the packaging (for accessability).
+#MatingParts</t>
+  </si>
+  <si>
+    <t>P110-180</t>
+  </si>
+  <si>
+    <t>Coupling screw shall be compatible with blade impactors. 
+#MatingParts</t>
+  </si>
+  <si>
+    <t>Blade Impactor Fine Adjust.
+Blade Impactor
+Coupling Screw</t>
+  </si>
+  <si>
+    <t>P110-190</t>
+  </si>
+  <si>
+    <t>Add compatibility features…</t>
+  </si>
+  <si>
+    <t>P110-200</t>
+  </si>
+  <si>
+    <t>Coupling screw shall be compatible with screw inserter. 
+#MatingParts</t>
+  </si>
+  <si>
+    <t>Screw Inserter
+Coupling Screw</t>
+  </si>
+  <si>
+    <t>P110-210</t>
+  </si>
+  <si>
+    <t>P110-220</t>
+  </si>
+  <si>
+    <t>Scrub tech assembles mating components with minimum number of steps.</t>
+  </si>
+  <si>
+    <t>Blade Impactor Fine Adjust.
+Blade Impactor
+Screw Inserter</t>
+  </si>
+  <si>
+    <t>P110-230</t>
+  </si>
+  <si>
+    <t>Assembly of the blade impactor shall not require additional steps compared to existing TFNA. 
+#Function</t>
+  </si>
+  <si>
+    <t>Blade Impactor Fine Adjust.
+Blade Impactor</t>
+  </si>
+  <si>
+    <t>P110-240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle is symmetrical and attaches to shaft in either orientation. </t>
+  </si>
+  <si>
+    <t>03.037.123:  Handle core groove feature</t>
+  </si>
+  <si>
+    <t>P110-250</t>
+  </si>
+  <si>
+    <t>Retention feature in handle.</t>
+  </si>
+  <si>
+    <t>Screw Inserter</t>
+  </si>
+  <si>
+    <t>03.037.124:  Handle core groove feature</t>
+  </si>
+  <si>
+    <t>P110-260</t>
+  </si>
+  <si>
+    <t>Screw insertion shall not require additional steps or devices.  
+#Function</t>
+  </si>
+  <si>
+    <t>P110-270</t>
+  </si>
+  <si>
+    <t>VOC User Need:  Surgeon inserts head element with maximum comfort and grip.
+OR
+Surgeon wants to use instruments without discomfort.</t>
+  </si>
+  <si>
+    <t>P110-280</t>
+  </si>
+  <si>
+    <t>All instruments that have a handle (UserInterface points) shall have a soft or coated handle.
+#UserInterface</t>
+  </si>
+  <si>
+    <t>P110-290</t>
+  </si>
+  <si>
+    <t>Blade impactor handle per ES0449.</t>
+  </si>
+  <si>
+    <t>P110-300</t>
+  </si>
+  <si>
+    <t>Screw inserter handle per ES0449.</t>
+  </si>
+  <si>
+    <t>P110-310</t>
+  </si>
+  <si>
+    <t>Extraction instrument handle per ES0449.</t>
+  </si>
+  <si>
+    <t>P110-320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surgeon and Scrub Tech assemble and use devices with maximum safety. </t>
+  </si>
+  <si>
+    <t>Risk management……</t>
+  </si>
+  <si>
+    <t>P110-330</t>
+  </si>
+  <si>
+    <t>Instruments shall not have sharp edges in the areas that are handled. 
+#UserInterface</t>
+  </si>
+  <si>
+    <t>P120</t>
+  </si>
+  <si>
+    <t>Insert head element implant</t>
+  </si>
+  <si>
+    <t>P120-010</t>
+  </si>
+  <si>
+    <t>Surgeon achieves adequate fixation for patient anatomy.</t>
+  </si>
+  <si>
+    <t>P120-020</t>
+  </si>
+  <si>
+    <t>Implants shall be provided in sizes to treat TBD anatomy (TBD percentile, etc.).
+#Function
+#Child = P600-060
+#Child = P600-070</t>
+  </si>
+  <si>
+    <t>P120-030</t>
+  </si>
+  <si>
+    <t>#Child = P600-060</t>
+  </si>
+  <si>
+    <t>P120-040</t>
+  </si>
+  <si>
+    <t>#Child = P600-070</t>
+  </si>
+  <si>
+    <t>P120-050</t>
+  </si>
+  <si>
+    <t>Surgeon places implant in femoral head with maximum accuracy.</t>
+  </si>
+  <si>
+    <t>P120-060</t>
+  </si>
+  <si>
+    <t>System shall allow accuracy of +/- TBD mm for helical blade placement.
+#Function
+(Given the amount of solution statements, there are probably more DIs in this area.)</t>
+  </si>
+  <si>
+    <t>P120-070</t>
+  </si>
+  <si>
+    <t>Keyed features (flats) between the two components of the helical blade (Shaft and Sleeve) to maintain orientation within +/- X degrees after assembled together</t>
+  </si>
+  <si>
+    <t>P120-080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impactor depth stop and rifling work in conjunction (ambiguous - identify how) to control number of revolutions blade undergoes during insertion. </t>
+  </si>
+  <si>
+    <t>L2 Solution rationale goes here……</t>
+  </si>
+  <si>
+    <t>P500</t>
+  </si>
+  <si>
+    <t>Additional User Need requirements not defined by a specific procedure step</t>
+  </si>
+  <si>
+    <t>P500-010</t>
+  </si>
+  <si>
+    <t>Surgeon wants to……</t>
+  </si>
+  <si>
+    <t>P600</t>
+  </si>
+  <si>
+    <t>Additional Business requirements</t>
+  </si>
+  <si>
+    <t>P600-010</t>
+  </si>
+  <si>
+    <t>TFNA Telescoping Instruments shall replace the existing TFNA instruments with equivalent functions in the existing TFNA Graphic Case.</t>
+  </si>
+  <si>
+    <t>Source of need goes here…..</t>
+  </si>
+  <si>
+    <t>Not Required - this is not a User Need.</t>
+  </si>
+  <si>
+    <t>Blade Impactor Fine Adjust.
+Blade Impactor
+Screw Inserter
+Coupling Screw
+Extraction Instrument
+Flex Driver
+Guide Sleeve</t>
+  </si>
+  <si>
+    <t>P600-020</t>
+  </si>
+  <si>
+    <t>New instruments shall have overall length within +/- TBD mm compared to comparable TFNA Core Instruments.
+#Function</t>
+  </si>
+  <si>
+    <t>P600-030</t>
+  </si>
+  <si>
+    <t>Still need to add this.</t>
+  </si>
+  <si>
+    <t>TBD
+TBD
+TBD..</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>P600-040</t>
+  </si>
+  <si>
+    <t>Provide same standard of technology for implant options as existing TFNA system.</t>
+  </si>
+  <si>
+    <t>Helical Blade
+Screw</t>
+  </si>
+  <si>
+    <t>P600-050</t>
+  </si>
+  <si>
+    <t>Implants (helical blade and screw) in the new system shall be the same styles and sizes of head element options as existing TFNA system.
+#Function</t>
+  </si>
+  <si>
+    <t>P600-060</t>
+  </si>
+  <si>
+    <t>Helical blade HE has 5mm increments from 80-130mm (in non-collapsed condition).
+#AdditonalParent = P120-020</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blade HE Shaft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Helix core diameter (CTQ01)
+Helix outer diameter (CTQ02)
+Flute pull-out radius
+Overall length</t>
+    </r>
+  </si>
+  <si>
+    <t>P600-070</t>
+  </si>
+  <si>
+    <t>Screw HE has 5mm increments from 80-130mm (in non-collapsed condition).
+#AdditonalParent = P120-020</t>
+  </si>
+  <si>
+    <t>Screw</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Screw HE Shaft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Core diameter (CTQ03)
+Thread outer diameter (CTQ04)
+Thread pitch
+Flank angles
+Crest length
+Overall length</t>
+    </r>
+  </si>
+  <si>
+    <t>P700</t>
+  </si>
+  <si>
+    <t>Additional Regulatory requirements</t>
+  </si>
+  <si>
+    <t>P700-010</t>
+  </si>
+  <si>
+    <t>REGULATORY NEED</t>
+  </si>
+  <si>
+    <t>Product shall meet additional regulatory requirements specific to Japan.</t>
+  </si>
+  <si>
+    <t>Japan Regulation TBD</t>
+  </si>
+  <si>
+    <t>P700-020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct strength shall be….
+#MechProperties
+</t>
+  </si>
+  <si>
+    <t>P700-030</t>
+  </si>
+  <si>
+    <t>TBD TBD TBD…..</t>
+  </si>
+  <si>
+    <t>Need</t>
+  </si>
+  <si>
+    <t>Solution Level 1</t>
+  </si>
+  <si>
+    <t>Solution Level 2</t>
+  </si>
+  <si>
+    <t>Solution Level 3</t>
+  </si>
+  <si>
+    <t>Solution Level 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,8 +1252,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +1346,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -463,7 +1453,7 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -491,6 +1481,54 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Bad" xfId="8" builtinId="27"/>
@@ -836,22 +1874,22 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="3" customWidth="1"/>
-    <col min="2" max="7" width="16.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="21.88671875" customWidth="1"/>
-    <col min="9" max="9" width="61.5546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="33.44140625" customWidth="1"/>
-    <col min="11" max="11" width="32.109375" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" customWidth="1"/>
-    <col min="13" max="13" width="23.5546875" customWidth="1"/>
-    <col min="14" max="14" width="31.109375" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="3" customWidth="1"/>
+    <col min="2" max="7" width="16.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="61.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" customWidth="1"/>
+    <col min="11" max="11" width="32.140625" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -898,7 +1936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>_xlfn.CONCAT(A1, " value")</f>
         <v>ID value</v>
@@ -963,7 +2001,7 @@
 Yes, No, N/A value</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:I3" si="1">_xlfn.CONCAT(A1, " value")</f>
         <v>ID value</v>
@@ -1025,7 +2063,7 @@
 Yes, No, N/A value</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ref="A4:I4" si="3">_xlfn.CONCAT(A2, " value")</f>
         <v>ID value value</v>
@@ -1102,6 +2140,2807 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C2D56A-7DEC-4A62-8589-C93B9D3B5DE7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="3" customWidth="1"/>
+    <col min="2" max="7" width="4.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="61.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" customWidth="1"/>
+    <col min="11" max="11" width="32.140625" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O19" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+    </row>
+    <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M25" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+    </row>
+    <row r="26" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M26" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+    </row>
+    <row r="27" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+    </row>
+    <row r="28" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M28" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+    </row>
+    <row r="29" spans="1:15" ht="48" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M29" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+    </row>
+    <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+    </row>
+    <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M31" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+    </row>
+    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+    </row>
+    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M33" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+    </row>
+    <row r="34" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+    </row>
+    <row r="35" spans="1:15" ht="72" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M35" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+    </row>
+    <row r="36" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L36" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M36" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+    </row>
+    <row r="37" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M37" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="N37" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="165" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M38" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="N38" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="O38" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M39" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="N39" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M40" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+    </row>
+    <row r="41" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M41" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+    </row>
+    <row r="42" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K42" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L42" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M42" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+    </row>
+    <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L43" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M43" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+    </row>
+    <row r="44" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L44" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M44" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+    </row>
+    <row r="45" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L45" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M45" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+    </row>
+    <row r="46" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K46" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L46" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M46" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+    </row>
+    <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L47" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M47" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="N47" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="O47" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K48" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L48" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M48" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="N48" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="O48" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J49" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K49" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L49" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M49" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+    </row>
+    <row r="50" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="J50" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="K50" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L50" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M50" s="22"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+    </row>
+    <row r="51" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="J51" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K51" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L51" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M51" s="22"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="J52" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K52" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L52" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M52" s="22"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="J53" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K53" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L53" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M53" s="22"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="J54" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K54" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L54" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M54" s="22"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+    </row>
+    <row r="55" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I55" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="J55" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L55" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M55" s="22"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+    </row>
+    <row r="56" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="J56" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L56" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M56" s="22"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="J57" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L57" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M57" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="N57" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O57" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="J58" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="K58" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L58" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M58" s="22"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+    </row>
+    <row r="59" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I59" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="J59" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K59" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L59" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M59" s="22"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I60" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J60" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="K60" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="L60" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="M60" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N60" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O60" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I61" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="J61" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="K61" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="L61" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="M61" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N61" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O61" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I62" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="J62" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="K62" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L62" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M62" s="22"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+    </row>
+    <row r="63" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I63" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="J63" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K63" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L63" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M63" s="22"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+    </row>
+    <row r="64" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I64" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="J64" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K64" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L64" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M64" s="22"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+    </row>
+    <row r="65" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G65" s="20"/>
+      <c r="H65" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="J65" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="K65" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L65" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M65" s="22"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+    </row>
+    <row r="66" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I66" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="J66" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="K66" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="L66" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M66" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="N66" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="O66" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="J67" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="K67" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L67" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M67" s="22"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+    </row>
+    <row r="68" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I68" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="J68" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="K68" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="L68" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M68" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="N68" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="O68" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="J69" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="K69" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="L69" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="M69" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="N69" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="O69" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="84" x14ac:dyDescent="0.25">
+      <c r="A70" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I70" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="J70" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K70" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L70" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M70" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="N70" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="O70" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="84" x14ac:dyDescent="0.25">
+      <c r="A71" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I71" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="J71" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K71" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L71" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M71" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="N71" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="O71" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I72" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="J72" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="K72" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="L72" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="M72" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="N72" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O72" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I73" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J73" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K73" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L73" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M73" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="N73" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O73" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I74" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="J74" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K74" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L74" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M74" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="N74" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="O74" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I75" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="J75" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K75" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L75" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M75" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="N75" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="O75" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I76" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="J76" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="K76" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="L76" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M76" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="N76" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="O76" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="I77" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="J77" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="K77" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="L77" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="M77" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="N77" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O77" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I78" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="J78" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K78" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L78" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M78" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="N78" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O78" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I79" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="J79" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K79" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L79" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M79" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="N79" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="O79" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:O79" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="17" scale="71" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;CPage &amp;P of &amp;N&amp;RVersion 3.0</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B51914-4951-4CB5-B02A-D6D464BC6724}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1109,25 +4948,25 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O4"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="3" customWidth="1"/>
-    <col min="2" max="7" width="4.6640625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="21.88671875" customWidth="1"/>
-    <col min="9" max="9" width="61.5546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="33.44140625" customWidth="1"/>
-    <col min="11" max="11" width="27.33203125" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" customWidth="1"/>
-    <col min="13" max="13" width="23.5546875" customWidth="1"/>
-    <col min="14" max="14" width="57.6640625" customWidth="1"/>
-    <col min="15" max="15" width="30.88671875" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="3" customWidth="1"/>
+    <col min="2" max="7" width="4.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="61.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" customWidth="1"/>
+    <col min="14" max="14" width="57.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1135,19 +4974,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2</v>
+        <v>288</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>4</v>
+        <v>289</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>5</v>
+        <v>290</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>6</v>
+        <v>291</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
@@ -1174,7 +5013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1221,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1268,7 +5107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1325,7 +5164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F75445-3309-40FF-A033-8608838D7335}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1333,16 +5172,16 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1359,7 +5198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1368,7 +5207,7 @@
       </c>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -1381,7 +5220,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>2</v>
@@ -1390,7 +5229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1399,7 +5238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1408,7 +5247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1420,7 +5259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1432,7 +5271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1444,7 +5283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1457,7 +5296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1475,17 +5314,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E10630-D1E9-46DB-98CF-4A34D3F758E6}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1499,7 +5338,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1513,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1527,7 +5366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1546,24 +5385,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34283C52-A606-4A91-BE38-3A1E2EFABC11}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="4.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="4.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1574,7 +5416,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>37</v>
@@ -1582,41 +5424,47 @@
       <c r="F1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="G1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>47</v>
       </c>
+      <c r="I1" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="J1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="O1" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1635,23 +5483,29 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -1673,29 +5527,35 @@
       <c r="F3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:B26" si="0">A3+1</f>
         <v>2</v>
@@ -1717,23 +5577,29 @@
       <c r="F4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1755,23 +5621,29 @@
       <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="b">
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1793,23 +5665,29 @@
       <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1831,23 +5709,29 @@
       <c r="F7" t="b">
         <v>1</v>
       </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1869,23 +5753,29 @@
       <c r="F8" t="b">
         <v>1</v>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="b">
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1907,24 +5797,33 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="G9" t="b">
+      <c r="G9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
@@ -1934,20 +5833,26 @@
       <c r="F10" t="b">
         <v>1</v>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1968,20 +5873,26 @@
       <c r="F11" t="b">
         <v>1</v>
       </c>
-      <c r="G11" t="b">
+      <c r="G11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2002,23 +5913,29 @@
       <c r="F12" t="b">
         <v>1</v>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="b">
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2038,20 +5955,26 @@
       <c r="F13" t="b">
         <v>1</v>
       </c>
-      <c r="G13" t="b">
+      <c r="G13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2059,7 +5982,9 @@
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14">
+        <v>-1</v>
+      </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
@@ -2069,23 +5994,29 @@
       <c r="F14" t="b">
         <v>1</v>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="b">
+      <c r="G14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2093,7 +6024,9 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15">
+        <v>-1</v>
+      </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
@@ -2103,20 +6036,26 @@
       <c r="F15" t="b">
         <v>1</v>
       </c>
-      <c r="G15" t="b">
+      <c r="G15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2124,7 +6063,9 @@
       <c r="B16">
         <v>4</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16">
+        <v>-1</v>
+      </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
@@ -2134,23 +6075,29 @@
       <c r="F16" t="b">
         <v>1</v>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="b">
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2170,27 +6117,36 @@
       <c r="F17" t="b">
         <v>1</v>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
@@ -2200,20 +6156,26 @@
       <c r="F18" t="b">
         <v>1</v>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="b">
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2233,23 +6195,29 @@
       <c r="F19" t="b">
         <v>1</v>
       </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" t="b">
+      <c r="G19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2270,23 +6238,29 @@
       <c r="F20" t="b">
         <v>1</v>
       </c>
-      <c r="G20" t="b">
+      <c r="G20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2307,20 +6281,26 @@
       <c r="F21" t="b">
         <v>1</v>
       </c>
-      <c r="G21" t="b">
+      <c r="G21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2341,23 +6321,29 @@
       <c r="F22" t="b">
         <v>1</v>
       </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2378,20 +6364,26 @@
       <c r="F23" t="b">
         <v>0</v>
       </c>
-      <c r="G23" t="b">
+      <c r="G23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" s="1" t="s">
+      <c r="H23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2412,20 +6404,26 @@
       <c r="F24" t="b">
         <v>1</v>
       </c>
-      <c r="G24" t="b">
+      <c r="G24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2446,20 +6444,26 @@
       <c r="F25" t="b">
         <v>1</v>
       </c>
-      <c r="G25" t="b">
+      <c r="G25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2480,35 +6484,51 @@
       <c r="F26" t="b">
         <v>1</v>
       </c>
-      <c r="G26" t="b">
+      <c r="G26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="O26" s="1" t="s">
+      <c r="H26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:I26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="iconSet" priority="1">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B2369C55104614D86A5ED6959977478" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c0e7eb4f9a047313f41567777b26d1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e53f4f12-70f6-49ff-8342-256ad4d5af45" xmlns:ns3="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21513b83e70fc08b789b5f083b414370" ns2:_="" ns3:_="">
     <xsd:import namespace="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
@@ -2787,6 +6807,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2823,14 +6852,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EA3E94-102E-42ED-8307-567DE6417681}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB17CD09-13F0-4BBC-ACF0-5247DAC323D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2845,6 +6866,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EA3E94-102E-42ED-8307-567DE6417681}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/test_rtm.xlsx
+++ b/tests/test_rtm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchukina\projects\rtm\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34852E1-0DD3-4725-96BD-67F601E2D73F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7887E7E5-9BE2-4812-919D-A528EF2B03FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_worksheet" sheetId="21" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="test_validation" sheetId="23" r:id="rId4"/>
     <sheet name="nonsense_fields" sheetId="26" r:id="rId5"/>
     <sheet name="cascade" sheetId="25" r:id="rId6"/>
+    <sheet name="tags" sheetId="28" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Procedure Based Requirements'!$A$1:$O$79</definedName>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="324">
   <si>
     <t>ID</t>
   </si>
@@ -179,9 +180,6 @@
   </si>
   <si>
     <t>one_entry</t>
-  </si>
-  <si>
-    <t>x_or_f</t>
   </si>
   <si>
     <t>C</t>
@@ -1156,6 +1154,107 @@
   </si>
   <si>
     <t>Solution Level 4</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>ReqStatement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    #FirstLineAfterWhiteSpace</t>
+  </si>
+  <si>
+    <t>No tag
+Here neither
+Also no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a requirement
+#SecondLineWithModifier abc def  
+#ThirdLineNoModifier   </t>
+  </si>
+  <si>
+    <t>#Function</t>
+  </si>
+  <si>
+    <t>MatingParts</t>
+  </si>
+  <si>
+    <t>#MechProperties</t>
+  </si>
+  <si>
+    <t>#UserInterface</t>
+  </si>
+  <si>
+    <t># child</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>#CustomTag</t>
+  </si>
+  <si>
+    <t>base_found</t>
+  </si>
+  <si>
+    <t>CustomTag</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>MechProperties</t>
+  </si>
+  <si>
+    <t>UserInterface</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>connected_edges</t>
+  </si>
+  <si>
+    <t>mutual_edges</t>
+  </si>
+  <si>
+    <t>ParentOf</t>
+  </si>
+  <si>
+    <t>ChildOf</t>
+  </si>
+  <si>
+    <t>fdsafdsa
+#ParentOf P020</t>
+  </si>
+  <si>
+    <t>#ChildOf P020-013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   #ChildOf P010-001</t>
+  </si>
+  <si>
+    <t>#ChildOf P999-999</t>
+  </si>
+  <si>
+    <t>#ParentOf P333-333</t>
+  </si>
+  <si>
+    <t>#ParentOf P010-009</t>
+  </si>
+  <si>
+    <t>x_entry</t>
+  </si>
+  <si>
+    <t>f_entry</t>
+  </si>
+  <si>
+    <t>orphan</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1552,7 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1528,6 +1627,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2146,8 +2248,8 @@
   </sheetPr>
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2173,19 +2275,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>7</v>
@@ -2214,7 +2316,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>25</v>
@@ -2225,33 +2327,33 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>25</v>
@@ -2262,33 +2364,33 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>25</v>
@@ -2299,33 +2401,33 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>25</v>
@@ -2336,33 +2438,33 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>25</v>
@@ -2373,33 +2475,33 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>25</v>
@@ -2410,33 +2512,33 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20" t="s">
@@ -2447,33 +2549,33 @@
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="J8" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="K8" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="L8" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="M8" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="N8" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -2484,107 +2586,107 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="K9" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="L9" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>99</v>
-      </c>
       <c r="N9" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="J10" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="K10" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="L10" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="L10" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M10" s="22" t="s">
+      <c r="N10" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="O10" s="21" t="s">
         <v>107</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I11" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M11" s="22" t="s">
+      <c r="N11" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="N11" s="21" t="s">
-        <v>112</v>
-      </c>
       <c r="O11" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -2595,70 +2697,70 @@
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="J12" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" s="22" t="s">
+      <c r="N12" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="N12" s="21" t="s">
-        <v>116</v>
-      </c>
       <c r="O12" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I13" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>119</v>
-      </c>
       <c r="O13" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>25</v>
@@ -2669,33 +2771,33 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>25</v>
@@ -2706,33 +2808,33 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20" t="s">
@@ -2743,33 +2845,33 @@
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I16" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="J16" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>126</v>
-      </c>
       <c r="N16" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -2780,70 +2882,70 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J17" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="21" t="s">
-        <v>98</v>
-      </c>
       <c r="L17" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I18" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="N18" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="J18" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L18" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M18" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="N18" s="21" t="s">
-        <v>131</v>
-      </c>
       <c r="O18" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>25</v>
@@ -2854,33 +2956,33 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20" t="s">
@@ -2891,33 +2993,33 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I20" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="J20" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="K20" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M20" s="22" t="s">
-        <v>136</v>
-      </c>
       <c r="N20" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -2928,70 +3030,70 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J21" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="K21" s="21" t="s">
-        <v>98</v>
-      </c>
       <c r="L21" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J22" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="K22" s="21" t="s">
-        <v>105</v>
-      </c>
       <c r="L22" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M22" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>25</v>
@@ -3002,33 +3104,33 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20" t="s">
@@ -3039,29 +3141,29 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M24" s="22" t="s">
         <v>144</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="L24" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M24" s="22" t="s">
-        <v>145</v>
       </c>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
     </row>
     <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -3072,128 +3174,128 @@
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I25" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M25" s="22" t="s">
         <v>147</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="L25" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M25" s="22" t="s">
-        <v>148</v>
       </c>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
     </row>
     <row r="26" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I26" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M26" s="22" t="s">
         <v>150</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L26" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M26" s="22" t="s">
-        <v>151</v>
       </c>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
     </row>
     <row r="27" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J27" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K27" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="K27" s="21" t="s">
-        <v>105</v>
-      </c>
       <c r="L27" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M27" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
     </row>
     <row r="28" spans="1:15" ht="36" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
       <c r="H28" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I28" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M28" s="22" t="s">
         <v>155</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K28" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L28" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M28" s="22" t="s">
-        <v>156</v>
       </c>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
     </row>
     <row r="29" spans="1:15" ht="48" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -3204,128 +3306,128 @@
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="H29" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I29" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M29" s="22" t="s">
         <v>158</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="L29" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M29" s="22" t="s">
-        <v>159</v>
       </c>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
     </row>
     <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I30" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M30" s="22" t="s">
         <v>161</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L30" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M30" s="22" t="s">
-        <v>162</v>
       </c>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
     </row>
     <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
       <c r="H31" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I31" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M31" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K31" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L31" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M31" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J32" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K32" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="K32" s="21" t="s">
-        <v>105</v>
-      </c>
       <c r="L32" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M32" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
     </row>
     <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -3336,95 +3438,95 @@
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
       <c r="H33" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I33" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M33" s="22" t="s">
         <v>169</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="K33" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="L33" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M33" s="22" t="s">
-        <v>170</v>
       </c>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
     </row>
     <row r="34" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="H34" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I34" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M34" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="J34" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K34" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L34" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M34" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
     </row>
     <row r="35" spans="1:15" ht="72" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
       <c r="H35" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I35" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M35" s="22" t="s">
         <v>175</v>
-      </c>
-      <c r="J35" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K35" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L35" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M35" s="22" t="s">
-        <v>176</v>
       </c>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
     </row>
     <row r="36" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -3435,140 +3537,140 @@
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
       <c r="H36" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I36" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L36" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M36" s="22" t="s">
         <v>178</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="K36" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="L36" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M36" s="22" t="s">
-        <v>179</v>
       </c>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
     </row>
     <row r="37" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
       <c r="H37" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I37" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M37" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="N37" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="J37" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K37" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L37" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M37" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="N37" s="21" t="s">
-        <v>182</v>
-      </c>
       <c r="O37" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I38" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M38" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="N38" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="J38" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K38" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L38" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M38" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="N38" s="21" t="s">
-        <v>185</v>
-      </c>
       <c r="O38" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I39" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M39" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="N39" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="J39" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K39" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L39" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M39" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="N39" s="21" t="s">
-        <v>188</v>
-      </c>
       <c r="O39" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -3579,29 +3681,29 @@
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="H40" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J40" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K40" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="K40" s="21" t="s">
-        <v>98</v>
-      </c>
       <c r="L40" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M40" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N40" s="21"/>
       <c r="O40" s="21"/>
     </row>
     <row r="41" spans="1:15" ht="36" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -3612,62 +3714,62 @@
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
       <c r="H41" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I41" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M41" s="22" t="s">
         <v>192</v>
-      </c>
-      <c r="J41" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="K41" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="L41" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M41" s="22" t="s">
-        <v>193</v>
       </c>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
     </row>
     <row r="42" spans="1:15" ht="36" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="H42" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J42" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K42" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="K42" s="21" t="s">
-        <v>105</v>
-      </c>
       <c r="L42" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
     </row>
     <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -3678,62 +3780,62 @@
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
       <c r="H43" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I43" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L43" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M43" s="22" t="s">
         <v>197</v>
-      </c>
-      <c r="J43" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="K43" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="L43" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M43" s="22" t="s">
-        <v>198</v>
       </c>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
     </row>
     <row r="44" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J44" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K44" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="K44" s="21" t="s">
-        <v>105</v>
-      </c>
       <c r="L44" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M44" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" ht="36" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="20" t="s">
@@ -3744,29 +3846,29 @@
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
       <c r="H45" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I45" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L45" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M45" s="22" t="s">
         <v>201</v>
-      </c>
-      <c r="J45" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="K45" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="L45" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M45" s="22" t="s">
-        <v>202</v>
       </c>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
     </row>
     <row r="46" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -3777,103 +3879,103 @@
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
       <c r="H46" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I46" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K46" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L46" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M46" s="22" t="s">
         <v>204</v>
-      </c>
-      <c r="J46" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="K46" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="L46" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M46" s="22" t="s">
-        <v>205</v>
       </c>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
     </row>
     <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="H47" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I47" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L47" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M47" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="N47" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="J47" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K47" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L47" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M47" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="N47" s="21" t="s">
-        <v>208</v>
-      </c>
       <c r="O47" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
       <c r="H48" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I48" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K48" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L48" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M48" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="J48" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K48" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L48" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M48" s="22" t="s">
+      <c r="N48" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="N48" s="21" t="s">
-        <v>212</v>
-      </c>
       <c r="O48" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -3884,29 +3986,29 @@
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J49" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K49" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="K49" s="21" t="s">
-        <v>98</v>
-      </c>
       <c r="L49" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N49" s="21"/>
       <c r="O49" s="21"/>
     </row>
     <row r="50" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="20" t="s">
@@ -3917,19 +4019,19 @@
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
       <c r="H50" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J50" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K50" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="K50" s="21" t="s">
+      <c r="L50" s="21" t="s">
         <v>91</v>
-      </c>
-      <c r="L50" s="21" t="s">
-        <v>92</v>
       </c>
       <c r="M50" s="22"/>
       <c r="N50" s="21"/>
@@ -3937,7 +4039,7 @@
     </row>
     <row r="51" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -3948,19 +4050,19 @@
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
       <c r="H51" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J51" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K51" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="K51" s="21" t="s">
-        <v>98</v>
-      </c>
       <c r="L51" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M51" s="22"/>
       <c r="N51" s="21"/>
@@ -3968,30 +4070,30 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J52" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K52" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="K52" s="21" t="s">
-        <v>105</v>
-      </c>
       <c r="L52" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M52" s="22"/>
       <c r="N52" s="21"/>
@@ -3999,30 +4101,30 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="H53" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J53" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K53" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="K53" s="21" t="s">
-        <v>105</v>
-      </c>
       <c r="L53" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="22"/>
       <c r="N53" s="21"/>
@@ -4030,30 +4132,30 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
       <c r="H54" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J54" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K54" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="K54" s="21" t="s">
-        <v>105</v>
-      </c>
       <c r="L54" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M54" s="22"/>
       <c r="N54" s="21"/>
@@ -4061,7 +4163,7 @@
     </row>
     <row r="55" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="20" t="s">
@@ -4072,19 +4174,19 @@
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="H55" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I55" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="J55" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="21" t="s">
-        <v>227</v>
-      </c>
       <c r="K55" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L55" s="21" t="s">
         <v>91</v>
-      </c>
-      <c r="L55" s="21" t="s">
-        <v>92</v>
       </c>
       <c r="M55" s="22"/>
       <c r="N55" s="21"/>
@@ -4092,7 +4194,7 @@
     </row>
     <row r="56" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -4103,19 +4205,19 @@
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
       <c r="H56" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J56" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K56" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="K56" s="21" t="s">
-        <v>98</v>
-      </c>
       <c r="L56" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="22"/>
       <c r="N56" s="21"/>
@@ -4123,7 +4225,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>25</v>
@@ -4134,33 +4236,33 @@
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
       <c r="H57" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J57" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L57" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M57" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N57" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O57" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="20" t="s">
@@ -4171,19 +4273,19 @@
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
       <c r="H58" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J58" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K58" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="K58" s="21" t="s">
+      <c r="L58" s="21" t="s">
         <v>91</v>
-      </c>
-      <c r="L58" s="21" t="s">
-        <v>92</v>
       </c>
       <c r="M58" s="22"/>
       <c r="N58" s="21"/>
@@ -4191,7 +4293,7 @@
     </row>
     <row r="59" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -4202,19 +4304,19 @@
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
       <c r="H59" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I59" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J59" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K59" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="K59" s="21" t="s">
-        <v>98</v>
-      </c>
       <c r="L59" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M59" s="22"/>
       <c r="N59" s="21"/>
@@ -4222,81 +4324,81 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
       <c r="H60" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I60" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J60" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K60" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L60" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N60" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O60" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
       <c r="H61" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I61" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J61" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K61" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L61" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M61" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N61" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="20" t="s">
@@ -4307,19 +4409,19 @@
       <c r="F62" s="20"/>
       <c r="G62" s="20"/>
       <c r="H62" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I62" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J62" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K62" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="K62" s="21" t="s">
+      <c r="L62" s="21" t="s">
         <v>91</v>
-      </c>
-      <c r="L62" s="21" t="s">
-        <v>92</v>
       </c>
       <c r="M62" s="22"/>
       <c r="N62" s="21"/>
@@ -4327,7 +4429,7 @@
     </row>
     <row r="63" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -4338,19 +4440,19 @@
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
       <c r="H63" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I63" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J63" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K63" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="K63" s="21" t="s">
-        <v>98</v>
-      </c>
       <c r="L63" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="22"/>
       <c r="N63" s="21"/>
@@ -4358,7 +4460,7 @@
     </row>
     <row r="64" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
@@ -4369,19 +4471,19 @@
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
       <c r="H64" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I64" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J64" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K64" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="K64" s="21" t="s">
-        <v>105</v>
-      </c>
       <c r="L64" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M64" s="22"/>
       <c r="N64" s="21"/>
@@ -4389,30 +4491,30 @@
     </row>
     <row r="65" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
       <c r="F65" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G65" s="20"/>
       <c r="H65" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I65" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="J65" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="J65" s="21" t="s">
-        <v>248</v>
-      </c>
       <c r="K65" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L65" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M65" s="22"/>
       <c r="N65" s="21"/>
@@ -4420,7 +4522,7 @@
     </row>
     <row r="66" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B66" s="25" t="s">
         <v>25</v>
@@ -4431,33 +4533,33 @@
       <c r="F66" s="25"/>
       <c r="G66" s="25"/>
       <c r="H66" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I66" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J66" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K66" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L66" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M66" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N66" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O66" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="20" t="s">
@@ -4468,19 +4570,19 @@
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
       <c r="H67" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I67" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J67" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K67" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="K67" s="21" t="s">
+      <c r="L67" s="21" t="s">
         <v>91</v>
-      </c>
-      <c r="L67" s="21" t="s">
-        <v>92</v>
       </c>
       <c r="M67" s="22"/>
       <c r="N67" s="21"/>
@@ -4488,7 +4590,7 @@
     </row>
     <row r="68" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B68" s="25" t="s">
         <v>25</v>
@@ -4499,33 +4601,33 @@
       <c r="F68" s="25"/>
       <c r="G68" s="25"/>
       <c r="H68" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I68" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K68" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L68" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M68" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N68" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O68" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="20" t="s">
@@ -4536,33 +4638,33 @@
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
       <c r="H69" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I69" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="J69" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="J69" s="21" t="s">
+      <c r="K69" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="K69" s="21" t="s">
+      <c r="L69" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="M69" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="L69" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="M69" s="28" t="s">
-        <v>259</v>
-      </c>
       <c r="N69" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O69" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="84" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
@@ -4573,70 +4675,70 @@
       <c r="F70" s="20"/>
       <c r="G70" s="20"/>
       <c r="H70" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I70" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J70" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K70" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="K70" s="21" t="s">
-        <v>98</v>
-      </c>
       <c r="L70" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M70" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N70" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O70" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="84" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
       <c r="E71" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="20"/>
       <c r="H71" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I71" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="J71" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K71" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L71" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M71" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="N71" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="J71" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K71" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L71" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M71" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="N71" s="21" t="s">
+      <c r="O71" s="21" t="s">
         <v>264</v>
-      </c>
-      <c r="O71" s="21" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="20" t="s">
@@ -4647,33 +4749,33 @@
       <c r="F72" s="20"/>
       <c r="G72" s="20"/>
       <c r="H72" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I72" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="J72" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="K72" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="L72" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="M72" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="J72" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="K72" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="L72" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="M72" s="22" t="s">
-        <v>268</v>
-      </c>
       <c r="N72" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
@@ -4684,107 +4786,107 @@
       <c r="F73" s="20"/>
       <c r="G73" s="20"/>
       <c r="H73" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J73" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K73" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="K73" s="21" t="s">
-        <v>98</v>
-      </c>
       <c r="L73" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M73" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N73" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O73" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
       <c r="E74" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="20"/>
       <c r="H74" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I74" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="J74" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K74" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L74" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M74" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="N74" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="J74" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K74" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L74" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M74" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="N74" s="21" t="s">
-        <v>273</v>
-      </c>
       <c r="O74" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
       <c r="E75" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="20"/>
       <c r="H75" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I75" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="J75" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K75" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L75" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M75" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="J75" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K75" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L75" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M75" s="22" t="s">
+      <c r="N75" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="N75" s="21" t="s">
-        <v>277</v>
-      </c>
       <c r="O75" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B76" s="25" t="s">
         <v>25</v>
@@ -4795,33 +4897,33 @@
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
       <c r="H76" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I76" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K76" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L76" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M76" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N76" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O76" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="20" t="s">
@@ -4832,33 +4934,33 @@
       <c r="F77" s="20"/>
       <c r="G77" s="20"/>
       <c r="H77" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="I77" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="I77" s="21" t="s">
+      <c r="J77" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="J77" s="21" t="s">
-        <v>283</v>
-      </c>
       <c r="K77" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L77" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M77" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N77" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O77" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
@@ -4869,65 +4971,65 @@
       <c r="F78" s="20"/>
       <c r="G78" s="20"/>
       <c r="H78" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I78" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J78" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K78" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="K78" s="21" t="s">
-        <v>98</v>
-      </c>
       <c r="L78" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M78" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N78" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O78" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
       <c r="E79" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F79" s="20"/>
       <c r="G79" s="20"/>
       <c r="H79" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I79" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J79" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K79" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="K79" s="21" t="s">
-        <v>105</v>
-      </c>
       <c r="L79" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N79" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="O79" s="21" t="s">
         <v>264</v>
-      </c>
-      <c r="O79" s="21" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -4974,19 +5076,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
@@ -5387,25 +5489,31 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34283C52-A606-4A91-BE38-3A1E2EFABC11}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="4.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" style="1" customWidth="1"/>
+    <col min="14" max="19" width="4.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="25" customWidth="1"/>
+    <col min="22" max="22" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" customWidth="1"/>
+    <col min="25" max="25" width="12" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="4" customFormat="1" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -5416,55 +5524,79 @@
         <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="R1" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5483,29 +5615,47 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="b">
+      <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>49</v>
+      <c r="J2" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="K2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" t="s">
+        <v>313</v>
+      </c>
+      <c r="X2" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -5525,37 +5675,55 @@
         <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>51</v>
+      <c r="J3" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="K3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="W3" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:B26" si="0">A3+1</f>
         <v>2</v>
@@ -5577,29 +5745,44 @@
       <c r="F4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="b">
+      <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>52</v>
+      <c r="J4" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="K4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="W4" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5621,29 +5804,44 @@
       <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="b">
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
       <c r="K5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="W5" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5665,29 +5863,44 @@
       <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="b">
+      <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
-        <v>54</v>
+      <c r="J6" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="K6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U6" t="s">
+        <v>101</v>
+      </c>
+      <c r="V6" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="W6" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5707,31 +5920,43 @@
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
-        <v>55</v>
+      <c r="J7" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="K7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="L7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U7" t="s">
+        <v>101</v>
+      </c>
+      <c r="V7" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5753,29 +5978,39 @@
       <c r="F8" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="b">
-        <v>1</v>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
       <c r="I8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="29"/>
+      <c r="Z8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5797,26 +6032,35 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="1" t="b">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
+      <c r="J9" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="K9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="L9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Z9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5833,26 +6077,35 @@
       <c r="F10" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="b">
+      <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J10" t="s">
-        <v>58</v>
+      <c r="J10" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="K10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="S10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5873,26 +6126,38 @@
       <c r="F11" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="1" t="b">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
+      <c r="J11" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="K11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="L11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V11" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5913,29 +6178,38 @@
       <c r="F12" t="b">
         <v>1</v>
       </c>
-      <c r="G12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="b">
+      <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="L12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5955,26 +6229,38 @@
       <c r="F13" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="1" t="b">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>50</v>
+      <c r="J13" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="K13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V13" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5994,29 +6280,38 @@
       <c r="F14" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="b">
+      <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="I14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1" t="s">
+      <c r="L14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6036,26 +6331,38 @@
       <c r="F15" t="b">
         <v>1</v>
       </c>
-      <c r="G15" s="1" t="b">
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>62</v>
+      <c r="J15" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="K15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="L15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V15" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6075,29 +6382,38 @@
       <c r="F16" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="b">
+      <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="I16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1" t="s">
+      <c r="L16" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6117,29 +6433,38 @@
       <c r="F17" t="b">
         <v>1</v>
       </c>
-      <c r="G17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="b">
+      <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J17" t="s">
-        <v>64</v>
+      <c r="J17" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="K17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="L17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U17" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6156,26 +6481,35 @@
       <c r="F18" t="b">
         <v>1</v>
       </c>
-      <c r="G18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="b">
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>65</v>
-      </c>
       <c r="K18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="S18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6195,29 +6529,41 @@
       <c r="F19" t="b">
         <v>1</v>
       </c>
-      <c r="G19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="b">
+      <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J19" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N19" s="1" t="s">
+      <c r="L19" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U19" t="s">
+        <v>101</v>
+      </c>
+      <c r="V19" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6238,29 +6584,41 @@
       <c r="F20" t="b">
         <v>1</v>
       </c>
-      <c r="G20" s="1" t="b">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>67</v>
+      <c r="J20" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="K20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="L20" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V20" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6279,28 +6637,37 @@
         <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H21" s="1" t="b">
+      <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
-        <v>68</v>
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="K21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="L21" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Z21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6321,29 +6688,38 @@
       <c r="F22" t="b">
         <v>1</v>
       </c>
-      <c r="G22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="b">
+      <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="I22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J22" t="s">
-        <v>69</v>
+      <c r="J22" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="K22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="L22" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6362,28 +6738,37 @@
         <v>1</v>
       </c>
       <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="1" t="b">
+      <c r="I23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>70</v>
+      <c r="J23" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="K23" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6404,26 +6789,35 @@
       <c r="F24" t="b">
         <v>1</v>
       </c>
-      <c r="G24" s="1" t="b">
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>71</v>
+      <c r="J24" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="K24" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="L24" t="s">
+        <v>70</v>
+      </c>
+      <c r="M24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Z24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6444,26 +6838,38 @@
       <c r="F25" t="b">
         <v>1</v>
       </c>
-      <c r="G25" s="1" t="b">
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>72</v>
+      <c r="J25" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="K25" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="L25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V25" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6482,29 +6888,64 @@
         <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H26" s="1" t="b">
+      <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="I26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>73</v>
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="K26" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="L26" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="Z26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:I26">
+  <conditionalFormatting sqref="I2:K26">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z26">
+    <cfRule type="iconSet" priority="1">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6515,20 +6956,95 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="iconSet" priority="1">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10D0E2C-1B2C-4DA2-B0A4-E7A32A693220}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Deliverable xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <Workstream xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <Project xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <OpCo xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <SharedWithUsers xmlns="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <Archive xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <MovetoWorkstream_x003f_ xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B2369C55104614D86A5ED6959977478" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c0e7eb4f9a047313f41567777b26d1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e53f4f12-70f6-49ff-8342-256ad4d5af45" xmlns:ns3="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21513b83e70fc08b789b5f083b414370" ns2:_="" ns3:_="">
     <xsd:import namespace="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
@@ -6807,51 +7323,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6B224B-0E2C-48D8-BDA5-831DA84116C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b"/>
+    <ds:schemaRef ds:uri="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Deliverable xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <Workstream xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <Project xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <OpCo xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45">DPS Trauma</OpCo>
-    <SharedWithUsers xmlns="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b">
-      <UserInfo>
-        <DisplayName>Dec, Brian [SYNNA]</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Conley, Jordan [SYNNA]</DisplayName>
-        <AccountId>6</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Tarczewski, John [DPYUS NON-J&amp;J]</DisplayName>
-        <AccountId>52</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Valenzuela, Jan [DPYUS]</DisplayName>
-        <AccountId>34</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <Archive xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45">false</Archive>
-    <MovetoWorkstream_x003f_ xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EA3E94-102E-42ED-8307-567DE6417681}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB17CD09-13F0-4BBC-ACF0-5247DAC323D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6868,29 +7365,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EA3E94-102E-42ED-8307-567DE6417681}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6B224B-0E2C-48D8-BDA5-831DA84116C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b"/>
-    <ds:schemaRef ds:uri="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tests/test_rtm.xlsx
+++ b/tests/test_rtm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchukina\projects\rtm\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7887E7E5-9BE2-4812-919D-A528EF2B03FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6551465-603A-437C-920F-8BB2BC982D9B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_worksheet" sheetId="21" r:id="rId1"/>
@@ -22,15 +22,9 @@
     <sheet name="tags" sheetId="28" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Procedure Based Requirements'!$A$1:$O$79</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Procedure Based Requirements2'!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">test_worksheet!$A$1:$O$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Procedure Based Requirements'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Procedure Based Requirements2'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">test_worksheet!$1:$1</definedName>
-    <definedName name="rngRequirements" localSheetId="1">#REF!</definedName>
-    <definedName name="rngRequirements" localSheetId="2">#REF!</definedName>
-    <definedName name="rngRequirements">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Procedure Based Requirements'!$A$2:$O$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Procedure Based Requirements2'!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">test_worksheet!$A$2:$O$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +44,7 @@
     <author>tc={4AB33BBD-8845-41EF-A55D-07BBCE08DB10}</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{4AB33BBD-8845-41EF-A55D-07BBCE08DB10}">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{4AB33BBD-8845-41EF-A55D-07BBCE08DB10}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="327">
   <si>
     <t>ID</t>
   </si>
@@ -665,6 +659,480 @@
   </si>
   <si>
     <t xml:space="preserve">Screw inserter feature (add feature) holds implant to length to prevent collapse  </t>
+  </si>
+  <si>
+    <t>P110-150</t>
+  </si>
+  <si>
+    <t>Blade impactor feature (add feature) holds implant to length to prevent collapse</t>
+  </si>
+  <si>
+    <t>Blade Impactor FA 03.037.123:  Distal tip geometry
+Blade Impactor 03.037.124:  Distal tip geometry
+Blade HE Shaft:  Lateral cut out feature
+Blade HE Sleeve:  Rack profile
+Blade HE Sleeve:  Lateral profile length
+Blade HE Sleeve:  Lateral flat profile</t>
+  </si>
+  <si>
+    <t>P110-160</t>
+  </si>
+  <si>
+    <t>Packaging features (add features) prevent clip removal until the implant is assembled to the inserter/impactor.</t>
+  </si>
+  <si>
+    <t>Pkg. clip:  Retention feature</t>
+  </si>
+  <si>
+    <t>P110-170</t>
+  </si>
+  <si>
+    <t>Clearance opening of at least TBDmm diameter between the implant and the inserter/impactor while the device is still inside the packaging (for accessability).
+#MatingParts</t>
+  </si>
+  <si>
+    <t>P110-180</t>
+  </si>
+  <si>
+    <t>Coupling screw shall be compatible with blade impactors. 
+#MatingParts</t>
+  </si>
+  <si>
+    <t>Blade Impactor Fine Adjust.
+Blade Impactor
+Coupling Screw</t>
+  </si>
+  <si>
+    <t>P110-190</t>
+  </si>
+  <si>
+    <t>Add compatibility features…</t>
+  </si>
+  <si>
+    <t>P110-200</t>
+  </si>
+  <si>
+    <t>Coupling screw shall be compatible with screw inserter. 
+#MatingParts</t>
+  </si>
+  <si>
+    <t>Screw Inserter
+Coupling Screw</t>
+  </si>
+  <si>
+    <t>P110-210</t>
+  </si>
+  <si>
+    <t>P110-220</t>
+  </si>
+  <si>
+    <t>Scrub tech assembles mating components with minimum number of steps.</t>
+  </si>
+  <si>
+    <t>Blade Impactor Fine Adjust.
+Blade Impactor
+Screw Inserter</t>
+  </si>
+  <si>
+    <t>P110-230</t>
+  </si>
+  <si>
+    <t>Assembly of the blade impactor shall not require additional steps compared to existing TFNA. 
+#Function</t>
+  </si>
+  <si>
+    <t>Blade Impactor Fine Adjust.
+Blade Impactor</t>
+  </si>
+  <si>
+    <t>P110-240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle is symmetrical and attaches to shaft in either orientation. </t>
+  </si>
+  <si>
+    <t>03.037.123:  Handle core groove feature</t>
+  </si>
+  <si>
+    <t>P110-250</t>
+  </si>
+  <si>
+    <t>Retention feature in handle.</t>
+  </si>
+  <si>
+    <t>Screw Inserter</t>
+  </si>
+  <si>
+    <t>03.037.124:  Handle core groove feature</t>
+  </si>
+  <si>
+    <t>P110-260</t>
+  </si>
+  <si>
+    <t>Screw insertion shall not require additional steps or devices.  
+#Function</t>
+  </si>
+  <si>
+    <t>P110-270</t>
+  </si>
+  <si>
+    <t>VOC User Need:  Surgeon inserts head element with maximum comfort and grip.
+OR
+Surgeon wants to use instruments without discomfort.</t>
+  </si>
+  <si>
+    <t>P110-280</t>
+  </si>
+  <si>
+    <t>All instruments that have a handle (UserInterface points) shall have a soft or coated handle.
+#UserInterface</t>
+  </si>
+  <si>
+    <t>P110-290</t>
+  </si>
+  <si>
+    <t>Blade impactor handle per ES0449.</t>
+  </si>
+  <si>
+    <t>P110-300</t>
+  </si>
+  <si>
+    <t>Screw inserter handle per ES0449.</t>
+  </si>
+  <si>
+    <t>P110-310</t>
+  </si>
+  <si>
+    <t>Extraction instrument handle per ES0449.</t>
+  </si>
+  <si>
+    <t>P110-320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surgeon and Scrub Tech assemble and use devices with maximum safety. </t>
+  </si>
+  <si>
+    <t>Risk management……</t>
+  </si>
+  <si>
+    <t>P110-330</t>
+  </si>
+  <si>
+    <t>Instruments shall not have sharp edges in the areas that are handled. 
+#UserInterface</t>
+  </si>
+  <si>
+    <t>P120</t>
+  </si>
+  <si>
+    <t>Insert head element implant</t>
+  </si>
+  <si>
+    <t>P120-010</t>
+  </si>
+  <si>
+    <t>Surgeon achieves adequate fixation for patient anatomy.</t>
+  </si>
+  <si>
+    <t>P120-020</t>
+  </si>
+  <si>
+    <t>Implants shall be provided in sizes to treat TBD anatomy (TBD percentile, etc.).
+#Function
+#Child = P600-060
+#Child = P600-070</t>
+  </si>
+  <si>
+    <t>P120-030</t>
+  </si>
+  <si>
+    <t>#Child = P600-060</t>
+  </si>
+  <si>
+    <t>P120-040</t>
+  </si>
+  <si>
+    <t>#Child = P600-070</t>
+  </si>
+  <si>
+    <t>P120-050</t>
+  </si>
+  <si>
+    <t>Surgeon places implant in femoral head with maximum accuracy.</t>
+  </si>
+  <si>
+    <t>P120-060</t>
+  </si>
+  <si>
+    <t>System shall allow accuracy of +/- TBD mm for helical blade placement.
+#Function
+(Given the amount of solution statements, there are probably more DIs in this area.)</t>
+  </si>
+  <si>
+    <t>P120-070</t>
+  </si>
+  <si>
+    <t>Keyed features (flats) between the two components of the helical blade (Shaft and Sleeve) to maintain orientation within +/- X degrees after assembled together</t>
+  </si>
+  <si>
+    <t>P120-080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impactor depth stop and rifling work in conjunction (ambiguous - identify how) to control number of revolutions blade undergoes during insertion. </t>
+  </si>
+  <si>
+    <t>L2 Solution rationale goes here……</t>
+  </si>
+  <si>
+    <t>P500</t>
+  </si>
+  <si>
+    <t>Additional User Need requirements not defined by a specific procedure step</t>
+  </si>
+  <si>
+    <t>P500-010</t>
+  </si>
+  <si>
+    <t>Surgeon wants to……</t>
+  </si>
+  <si>
+    <t>P600</t>
+  </si>
+  <si>
+    <t>Additional Business requirements</t>
+  </si>
+  <si>
+    <t>P600-010</t>
+  </si>
+  <si>
+    <t>TFNA Telescoping Instruments shall replace the existing TFNA instruments with equivalent functions in the existing TFNA Graphic Case.</t>
+  </si>
+  <si>
+    <t>Source of need goes here…..</t>
+  </si>
+  <si>
+    <t>Not Required - this is not a User Need.</t>
+  </si>
+  <si>
+    <t>Blade Impactor Fine Adjust.
+Blade Impactor
+Screw Inserter
+Coupling Screw
+Extraction Instrument
+Flex Driver
+Guide Sleeve</t>
+  </si>
+  <si>
+    <t>P600-020</t>
+  </si>
+  <si>
+    <t>New instruments shall have overall length within +/- TBD mm compared to comparable TFNA Core Instruments.
+#Function</t>
+  </si>
+  <si>
+    <t>P600-030</t>
+  </si>
+  <si>
+    <t>Still need to add this.</t>
+  </si>
+  <si>
+    <t>TBD
+TBD
+TBD..</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>P600-040</t>
+  </si>
+  <si>
+    <t>Provide same standard of technology for implant options as existing TFNA system.</t>
+  </si>
+  <si>
+    <t>Helical Blade
+Screw</t>
+  </si>
+  <si>
+    <t>P600-050</t>
+  </si>
+  <si>
+    <t>Implants (helical blade and screw) in the new system shall be the same styles and sizes of head element options as existing TFNA system.
+#Function</t>
+  </si>
+  <si>
+    <t>P600-060</t>
+  </si>
+  <si>
+    <t>Helical blade HE has 5mm increments from 80-130mm (in non-collapsed condition).
+#AdditonalParent = P120-020</t>
+  </si>
+  <si>
+    <t>P600-070</t>
+  </si>
+  <si>
+    <t>Screw HE has 5mm increments from 80-130mm (in non-collapsed condition).
+#AdditonalParent = P120-020</t>
+  </si>
+  <si>
+    <t>Screw</t>
+  </si>
+  <si>
+    <t>P700</t>
+  </si>
+  <si>
+    <t>Additional Regulatory requirements</t>
+  </si>
+  <si>
+    <t>P700-010</t>
+  </si>
+  <si>
+    <t>REGULATORY NEED</t>
+  </si>
+  <si>
+    <t>Product shall meet additional regulatory requirements specific to Japan.</t>
+  </si>
+  <si>
+    <t>Japan Regulation TBD</t>
+  </si>
+  <si>
+    <t>P700-020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct strength shall be….
+#MechProperties
+</t>
+  </si>
+  <si>
+    <t>P700-030</t>
+  </si>
+  <si>
+    <t>TBD TBD TBD…..</t>
+  </si>
+  <si>
+    <t>Need</t>
+  </si>
+  <si>
+    <t>Solution Level 1</t>
+  </si>
+  <si>
+    <t>Solution Level 2</t>
+  </si>
+  <si>
+    <t>Solution Level 3</t>
+  </si>
+  <si>
+    <t>Solution Level 4</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>ReqStatement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    #FirstLineAfterWhiteSpace</t>
+  </si>
+  <si>
+    <t>No tag
+Here neither
+Also no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a requirement
+#SecondLineWithModifier abc def  
+#ThirdLineNoModifier   </t>
+  </si>
+  <si>
+    <t>#Function</t>
+  </si>
+  <si>
+    <t>MatingParts</t>
+  </si>
+  <si>
+    <t>#MechProperties</t>
+  </si>
+  <si>
+    <t>#UserInterface</t>
+  </si>
+  <si>
+    <t># child</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>#CustomTag</t>
+  </si>
+  <si>
+    <t>base_found</t>
+  </si>
+  <si>
+    <t>CustomTag</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>MechProperties</t>
+  </si>
+  <si>
+    <t>UserInterface</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>connected_edges</t>
+  </si>
+  <si>
+    <t>mutual_edges</t>
+  </si>
+  <si>
+    <t>ParentOf</t>
+  </si>
+  <si>
+    <t>ChildOf</t>
+  </si>
+  <si>
+    <t>fdsafdsa
+#ParentOf P020</t>
+  </si>
+  <si>
+    <t>#ChildOf P020-013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   #ChildOf P010-001</t>
+  </si>
+  <si>
+    <t>#ChildOf P999-999</t>
+  </si>
+  <si>
+    <t>#ParentOf P333-333</t>
+  </si>
+  <si>
+    <t>#ParentOf P010-009</t>
+  </si>
+  <si>
+    <t>x_entry</t>
+  </si>
+  <si>
+    <t>f_entry</t>
+  </si>
+  <si>
+    <t>orphan</t>
+  </si>
+  <si>
+    <t>USER NEEDssss</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
   <si>
     <r>
@@ -680,7 +1148,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -702,7 +1170,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -724,7 +1192,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -736,318 +1204,11 @@
     </r>
   </si>
   <si>
-    <t>P110-150</t>
-  </si>
-  <si>
-    <t>Blade impactor feature (add feature) holds implant to length to prevent collapse</t>
-  </si>
-  <si>
-    <t>Blade Impactor FA 03.037.123:  Distal tip geometry
-Blade Impactor 03.037.124:  Distal tip geometry
-Blade HE Shaft:  Lateral cut out feature
-Blade HE Sleeve:  Rack profile
-Blade HE Sleeve:  Lateral profile length
-Blade HE Sleeve:  Lateral flat profile</t>
-  </si>
-  <si>
-    <t>P110-160</t>
-  </si>
-  <si>
-    <t>Packaging features (add features) prevent clip removal until the implant is assembled to the inserter/impactor.</t>
-  </si>
-  <si>
-    <t>Pkg. clip:  Retention feature</t>
-  </si>
-  <si>
-    <t>P110-170</t>
-  </si>
-  <si>
-    <t>Clearance opening of at least TBDmm diameter between the implant and the inserter/impactor while the device is still inside the packaging (for accessability).
-#MatingParts</t>
-  </si>
-  <si>
-    <t>P110-180</t>
-  </si>
-  <si>
-    <t>Coupling screw shall be compatible with blade impactors. 
-#MatingParts</t>
-  </si>
-  <si>
-    <t>Blade Impactor Fine Adjust.
-Blade Impactor
-Coupling Screw</t>
-  </si>
-  <si>
-    <t>P110-190</t>
-  </si>
-  <si>
-    <t>Add compatibility features…</t>
-  </si>
-  <si>
-    <t>P110-200</t>
-  </si>
-  <si>
-    <t>Coupling screw shall be compatible with screw inserter. 
-#MatingParts</t>
-  </si>
-  <si>
-    <t>Screw Inserter
-Coupling Screw</t>
-  </si>
-  <si>
-    <t>P110-210</t>
-  </si>
-  <si>
-    <t>P110-220</t>
-  </si>
-  <si>
-    <t>Scrub tech assembles mating components with minimum number of steps.</t>
-  </si>
-  <si>
-    <t>Blade Impactor Fine Adjust.
-Blade Impactor
-Screw Inserter</t>
-  </si>
-  <si>
-    <t>P110-230</t>
-  </si>
-  <si>
-    <t>Assembly of the blade impactor shall not require additional steps compared to existing TFNA. 
-#Function</t>
-  </si>
-  <si>
-    <t>Blade Impactor Fine Adjust.
-Blade Impactor</t>
-  </si>
-  <si>
-    <t>P110-240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handle is symmetrical and attaches to shaft in either orientation. </t>
-  </si>
-  <si>
-    <t>03.037.123:  Handle core groove feature</t>
-  </si>
-  <si>
-    <t>P110-250</t>
-  </si>
-  <si>
-    <t>Retention feature in handle.</t>
-  </si>
-  <si>
-    <t>Screw Inserter</t>
-  </si>
-  <si>
-    <t>03.037.124:  Handle core groove feature</t>
-  </si>
-  <si>
-    <t>P110-260</t>
-  </si>
-  <si>
-    <t>Screw insertion shall not require additional steps or devices.  
-#Function</t>
-  </si>
-  <si>
-    <t>P110-270</t>
-  </si>
-  <si>
-    <t>VOC User Need:  Surgeon inserts head element with maximum comfort and grip.
-OR
-Surgeon wants to use instruments without discomfort.</t>
-  </si>
-  <si>
-    <t>P110-280</t>
-  </si>
-  <si>
-    <t>All instruments that have a handle (UserInterface points) shall have a soft or coated handle.
-#UserInterface</t>
-  </si>
-  <si>
-    <t>P110-290</t>
-  </si>
-  <si>
-    <t>Blade impactor handle per ES0449.</t>
-  </si>
-  <si>
-    <t>P110-300</t>
-  </si>
-  <si>
-    <t>Screw inserter handle per ES0449.</t>
-  </si>
-  <si>
-    <t>P110-310</t>
-  </si>
-  <si>
-    <t>Extraction instrument handle per ES0449.</t>
-  </si>
-  <si>
-    <t>P110-320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surgeon and Scrub Tech assemble and use devices with maximum safety. </t>
-  </si>
-  <si>
-    <t>Risk management……</t>
-  </si>
-  <si>
-    <t>P110-330</t>
-  </si>
-  <si>
-    <t>Instruments shall not have sharp edges in the areas that are handled. 
-#UserInterface</t>
-  </si>
-  <si>
-    <t>P120</t>
-  </si>
-  <si>
-    <t>Insert head element implant</t>
-  </si>
-  <si>
-    <t>P120-010</t>
-  </si>
-  <si>
-    <t>Surgeon achieves adequate fixation for patient anatomy.</t>
-  </si>
-  <si>
-    <t>P120-020</t>
-  </si>
-  <si>
-    <t>Implants shall be provided in sizes to treat TBD anatomy (TBD percentile, etc.).
-#Function
-#Child = P600-060
-#Child = P600-070</t>
-  </si>
-  <si>
-    <t>P120-030</t>
-  </si>
-  <si>
-    <t>#Child = P600-060</t>
-  </si>
-  <si>
-    <t>P120-040</t>
-  </si>
-  <si>
-    <t>#Child = P600-070</t>
-  </si>
-  <si>
-    <t>P120-050</t>
-  </si>
-  <si>
-    <t>Surgeon places implant in femoral head with maximum accuracy.</t>
-  </si>
-  <si>
-    <t>P120-060</t>
-  </si>
-  <si>
-    <t>System shall allow accuracy of +/- TBD mm for helical blade placement.
-#Function
-(Given the amount of solution statements, there are probably more DIs in this area.)</t>
-  </si>
-  <si>
-    <t>P120-070</t>
-  </si>
-  <si>
-    <t>Keyed features (flats) between the two components of the helical blade (Shaft and Sleeve) to maintain orientation within +/- X degrees after assembled together</t>
-  </si>
-  <si>
-    <t>P120-080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impactor depth stop and rifling work in conjunction (ambiguous - identify how) to control number of revolutions blade undergoes during insertion. </t>
-  </si>
-  <si>
-    <t>L2 Solution rationale goes here……</t>
-  </si>
-  <si>
-    <t>P500</t>
-  </si>
-  <si>
-    <t>Additional User Need requirements not defined by a specific procedure step</t>
-  </si>
-  <si>
-    <t>P500-010</t>
-  </si>
-  <si>
-    <t>Surgeon wants to……</t>
-  </si>
-  <si>
-    <t>P600</t>
-  </si>
-  <si>
-    <t>Additional Business requirements</t>
-  </si>
-  <si>
-    <t>P600-010</t>
-  </si>
-  <si>
-    <t>TFNA Telescoping Instruments shall replace the existing TFNA instruments with equivalent functions in the existing TFNA Graphic Case.</t>
-  </si>
-  <si>
-    <t>Source of need goes here…..</t>
-  </si>
-  <si>
-    <t>Not Required - this is not a User Need.</t>
-  </si>
-  <si>
-    <t>Blade Impactor Fine Adjust.
-Blade Impactor
-Screw Inserter
-Coupling Screw
-Extraction Instrument
-Flex Driver
-Guide Sleeve</t>
-  </si>
-  <si>
-    <t>P600-020</t>
-  </si>
-  <si>
-    <t>New instruments shall have overall length within +/- TBD mm compared to comparable TFNA Core Instruments.
-#Function</t>
-  </si>
-  <si>
-    <t>P600-030</t>
-  </si>
-  <si>
-    <t>Still need to add this.</t>
-  </si>
-  <si>
-    <t>TBD
-TBD
-TBD..</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>P600-040</t>
-  </si>
-  <si>
-    <t>Provide same standard of technology for implant options as existing TFNA system.</t>
-  </si>
-  <si>
-    <t>Helical Blade
-Screw</t>
-  </si>
-  <si>
-    <t>P600-050</t>
-  </si>
-  <si>
-    <t>Implants (helical blade and screw) in the new system shall be the same styles and sizes of head element options as existing TFNA system.
-#Function</t>
-  </si>
-  <si>
-    <t>P600-060</t>
-  </si>
-  <si>
-    <t>Helical blade HE has 5mm increments from 80-130mm (in non-collapsed condition).
-#AdditonalParent = P120-020</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1057,7 +1218,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1070,21 +1231,11 @@
     </r>
   </si>
   <si>
-    <t>P600-070</t>
-  </si>
-  <si>
-    <t>Screw HE has 5mm increments from 80-130mm (in non-collapsed condition).
-#AdditonalParent = P120-020</t>
-  </si>
-  <si>
-    <t>Screw</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1094,7 +1245,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1108,160 +1259,12 @@
 Overall length</t>
     </r>
   </si>
-  <si>
-    <t>P700</t>
-  </si>
-  <si>
-    <t>Additional Regulatory requirements</t>
-  </si>
-  <si>
-    <t>P700-010</t>
-  </si>
-  <si>
-    <t>REGULATORY NEED</t>
-  </si>
-  <si>
-    <t>Product shall meet additional regulatory requirements specific to Japan.</t>
-  </si>
-  <si>
-    <t>Japan Regulation TBD</t>
-  </si>
-  <si>
-    <t>P700-020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct strength shall be….
-#MechProperties
-</t>
-  </si>
-  <si>
-    <t>P700-030</t>
-  </si>
-  <si>
-    <t>TBD TBD TBD…..</t>
-  </si>
-  <si>
-    <t>Need</t>
-  </si>
-  <si>
-    <t>Solution Level 1</t>
-  </si>
-  <si>
-    <t>Solution Level 2</t>
-  </si>
-  <si>
-    <t>Solution Level 3</t>
-  </si>
-  <si>
-    <t>Solution Level 4</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>ReqStatement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    #FirstLineAfterWhiteSpace</t>
-  </si>
-  <si>
-    <t>No tag
-Here neither
-Also no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a requirement
-#SecondLineWithModifier abc def  
-#ThirdLineNoModifier   </t>
-  </si>
-  <si>
-    <t>#Function</t>
-  </si>
-  <si>
-    <t>MatingParts</t>
-  </si>
-  <si>
-    <t>#MechProperties</t>
-  </si>
-  <si>
-    <t>#UserInterface</t>
-  </si>
-  <si>
-    <t># child</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>#CustomTag</t>
-  </si>
-  <si>
-    <t>base_found</t>
-  </si>
-  <si>
-    <t>CustomTag</t>
-  </si>
-  <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>MechProperties</t>
-  </si>
-  <si>
-    <t>UserInterface</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>custom</t>
-  </si>
-  <si>
-    <t>connected_edges</t>
-  </si>
-  <si>
-    <t>mutual_edges</t>
-  </si>
-  <si>
-    <t>ParentOf</t>
-  </si>
-  <si>
-    <t>ChildOf</t>
-  </si>
-  <si>
-    <t>fdsafdsa
-#ParentOf P020</t>
-  </si>
-  <si>
-    <t>#ChildOf P020-013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   #ChildOf P010-001</t>
-  </si>
-  <si>
-    <t>#ChildOf P999-999</t>
-  </si>
-  <si>
-    <t>#ParentOf P333-333</t>
-  </si>
-  <si>
-    <t>#ParentOf P010-009</t>
-  </si>
-  <si>
-    <t>x_entry</t>
-  </si>
-  <si>
-    <t>f_entry</t>
-  </si>
-  <si>
-    <t>orphan</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1352,9 +1355,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="6" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1362,14 +1393,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <color theme="6" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1377,27 +1401,13 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="6" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1453,8 +1463,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1538,6 +1554,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1552,7 +1592,7 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1583,53 +1623,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1959,7 +2041,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J3" dT="2019-07-29T20:42:57.38" personId="{BA95EFCC-E39B-4FD7-9BEE-F448F9FA0C93}" id="{4AB33BBD-8845-41EF-A55D-07BBCE08DB10}">
+  <threadedComment ref="J4" dT="2019-07-29T20:42:57.38" personId="{BA95EFCC-E39B-4FD7-9BEE-F448F9FA0C93}" id="{4AB33BBD-8845-41EF-A55D-07BBCE08DB10}">
     <text>fail: val_cell_not_empty</text>
   </threadedComment>
 </ThreadedComments>
@@ -1970,10 +2052,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A2:O5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1991,249 +2073,249 @@
     <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>_xlfn.CONCAT(A1, " value")</f>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>_xlfn.CONCAT(A2, " value")</f>
         <v>ID value</v>
       </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:O2" si="0">_xlfn.CONCAT(B1, " value")</f>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:O3" si="0">_xlfn.CONCAT(B2, " value")</f>
         <v>Procedure Step value</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C3" t="str">
         <f t="shared" si="0"/>
         <v>User Need value</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D3" t="str">
         <f t="shared" si="0"/>
         <v>Design Input value</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E3" t="str">
         <f t="shared" si="0"/>
         <v>DO Solution L1 value</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F3" t="str">
         <f t="shared" si="0"/>
         <v>DO Solution L2 value</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G3" t="str">
         <f t="shared" si="0"/>
         <v>DO Solution L3 value</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H3" t="str">
         <f t="shared" si="0"/>
         <v>Cascade Level value</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I3" t="str">
         <f t="shared" si="0"/>
         <v>Requirement Statement value</v>
       </c>
-      <c r="J2" s="8" t="str">
+      <c r="J3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Requirement Rationale value</v>
       </c>
-      <c r="K2" t="str">
+      <c r="K3" t="str">
         <f t="shared" si="0"/>
         <v>Verification or
 Validation Strategy value</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L3" t="str">
         <f t="shared" si="0"/>
         <v>Verification or Validation Results value</v>
       </c>
-      <c r="M2" t="str">
+      <c r="M3" t="str">
         <f t="shared" si="0"/>
         <v>Devices value</v>
       </c>
-      <c r="N2" t="str">
+      <c r="N3" t="str">
         <f t="shared" si="0"/>
         <v>Design Ouptut Feature
 (with CTQ ID #) value</v>
       </c>
-      <c r="O2" t="str">
+      <c r="O3" t="str">
         <f t="shared" si="0"/>
         <v>CTQ?
 Yes, No, N/A value</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:I3" si="1">_xlfn.CONCAT(A1, " value")</f>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" ref="A4:I4" si="1">_xlfn.CONCAT(A2, " value")</f>
         <v>ID value</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B4" t="str">
         <f t="shared" si="1"/>
         <v>Procedure Step value</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C4" t="str">
         <f t="shared" si="1"/>
         <v>User Need value</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D4" t="str">
         <f t="shared" si="1"/>
         <v>Design Input value</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E4" t="str">
         <f t="shared" si="1"/>
         <v>DO Solution L1 value</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F4" t="str">
         <f t="shared" si="1"/>
         <v>DO Solution L2 value</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G4" t="str">
         <f t="shared" si="1"/>
         <v>DO Solution L3 value</v>
       </c>
-      <c r="H3" t="str">
+      <c r="H4" t="str">
         <f t="shared" si="1"/>
         <v>Cascade Level value</v>
       </c>
-      <c r="I3" t="str">
+      <c r="I4" t="str">
         <f t="shared" si="1"/>
         <v>Requirement Statement value</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" t="str">
-        <f t="shared" ref="K3:O4" si="2">_xlfn.CONCAT(K1, " value")</f>
+      <c r="J4" s="9"/>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:O5" si="2">_xlfn.CONCAT(K2, " value")</f>
         <v>Verification or
 Validation Strategy value</v>
       </c>
-      <c r="L3" t="str">
+      <c r="L4" t="str">
         <f t="shared" si="2"/>
         <v>Verification or Validation Results value</v>
       </c>
-      <c r="M3" t="str">
+      <c r="M4" t="str">
         <f t="shared" si="2"/>
         <v>Devices value</v>
       </c>
-      <c r="N3" t="str">
+      <c r="N4" t="str">
         <f t="shared" si="2"/>
         <v>Design Ouptut Feature
 (with CTQ ID #) value</v>
       </c>
-      <c r="O3" t="str">
+      <c r="O4" t="str">
         <f t="shared" si="2"/>
         <v>CTQ?
 Yes, No, N/A value</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f t="shared" ref="A4:I4" si="3">_xlfn.CONCAT(A2, " value")</f>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" ref="A5:I5" si="3">_xlfn.CONCAT(A3, " value")</f>
         <v>ID value value</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B5" t="str">
         <f t="shared" si="3"/>
         <v>Procedure Step value value</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C5" t="str">
         <f t="shared" si="3"/>
         <v>User Need value value</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D5" t="str">
         <f t="shared" si="3"/>
         <v>Design Input value value</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E5" t="str">
         <f t="shared" si="3"/>
         <v>DO Solution L1 value value</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F5" t="str">
         <f t="shared" si="3"/>
         <v>DO Solution L2 value value</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G5" t="str">
         <f t="shared" si="3"/>
         <v>DO Solution L3 value value</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H5" t="str">
         <f t="shared" si="3"/>
         <v>Cascade Level value value</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I5" t="str">
         <f t="shared" si="3"/>
         <v>Requirement Statement value value</v>
       </c>
-      <c r="J4" s="8" t="str">
-        <f>_xlfn.CONCAT(J2, " value")</f>
+      <c r="J5" s="8" t="str">
+        <f>_xlfn.CONCAT(J3, " value")</f>
         <v>Requirement Rationale value value</v>
       </c>
-      <c r="K4" t="str">
+      <c r="K5" t="str">
         <f t="shared" si="2"/>
         <v>Verification or
 Validation Strategy value value</v>
       </c>
-      <c r="L4" t="str">
+      <c r="L5" t="str">
         <f t="shared" si="2"/>
         <v>Verification or Validation Results value value</v>
       </c>
-      <c r="M4" t="str">
+      <c r="M5" t="str">
         <f t="shared" si="2"/>
         <v>Devices value value</v>
       </c>
-      <c r="N4" t="str">
+      <c r="N5" t="str">
         <f t="shared" si="2"/>
         <v>Design Ouptut Feature
 (with CTQ ID #) value value</v>
       </c>
-      <c r="O4" t="str">
+      <c r="O5" t="str">
         <f t="shared" si="2"/>
         <v>CTQ?
 Yes, No, N/A value value</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A2:O2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="17" scale="71" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="17" scale="53" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CPage &amp;P of &amp;N&amp;RVersion 2.0</oddFooter>
   </headerFooter>
@@ -2246,2796 +2328,2800 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="3" customWidth="1"/>
-    <col min="2" max="7" width="4.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="7" width="5.42578125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="21.85546875" customWidth="1"/>
     <col min="9" max="9" width="61.5703125" style="4" customWidth="1"/>
     <col min="10" max="10" width="33.42578125" customWidth="1"/>
-    <col min="11" max="11" width="32.140625" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="34.7109375" customWidth="1"/>
+    <col min="12" max="12" width="33.7109375" customWidth="1"/>
     <col min="13" max="13" width="23.5703125" customWidth="1"/>
-    <col min="14" max="14" width="31.140625" customWidth="1"/>
-    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="14" max="14" width="38.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43"/>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="H2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O2" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="J3" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I4" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="J4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I5" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="J5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="J6" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I7" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="J7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="21" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="I8" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="I9" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J9" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K9" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L9" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M9" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="N8" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="21" t="s">
+      <c r="N9" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="28" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I10" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J10" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K10" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L10" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M10" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="N9" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" s="21" t="s">
+      <c r="N10" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21" t="s">
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I11" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J11" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K11" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L11" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M11" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N11" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O11" s="28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21" t="s">
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I12" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J12" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K12" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L12" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M12" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N12" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="O11" s="21" t="s">
+      <c r="O12" s="33" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21" t="s">
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I13" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J13" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K13" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L13" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M13" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N13" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O13" s="28" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21" t="s">
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I14" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J14" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K14" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L14" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M14" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N14" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O14" s="33" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I15" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="J14" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O14" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="J15" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O15" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I17" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J17" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K17" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="L17" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="M17" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N17" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="O16" s="21" t="s">
+      <c r="O17" s="28" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+    <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21" t="s">
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I18" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J18" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K18" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L18" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="M17" s="22" t="s">
+      <c r="M18" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="N18" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="O17" s="21" t="s">
+      <c r="O18" s="33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+    <row r="19" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21" t="s">
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I19" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="J18" s="21" t="s">
+      <c r="J19" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="K19" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L19" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="M19" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="N18" s="21" t="s">
+      <c r="N19" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="O18" s="21" t="s">
+      <c r="O19" s="28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N19" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O19" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I21" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J21" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K21" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L21" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M20" s="22" t="s">
+      <c r="M21" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="N20" s="21" t="s">
+      <c r="N21" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="O20" s="21" t="s">
+      <c r="O21" s="28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+    <row r="22" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21" t="s">
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I22" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J22" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="K22" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="L22" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="M22" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="N21" s="21" t="s">
+      <c r="N22" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="O21" s="21" t="s">
+      <c r="O22" s="33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21" t="s">
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I23" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J23" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="K23" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="L22" s="21" t="s">
+      <c r="L23" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M22" s="22" t="s">
+      <c r="M23" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="N22" s="21" t="s">
+      <c r="N23" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="O22" s="21" t="s">
+      <c r="O23" s="28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="L23" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N23" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O23" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I25" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="J24" s="21" t="s">
+      <c r="J25" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="K25" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="L24" s="21" t="s">
+      <c r="L25" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M24" s="22" t="s">
+      <c r="M25" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-    </row>
-    <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="N25" s="26"/>
+      <c r="O25" s="28"/>
+    </row>
+    <row r="26" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21" t="s">
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I26" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="J25" s="21" t="s">
+      <c r="J26" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="K26" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L26" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="M25" s="22" t="s">
+      <c r="M26" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-    </row>
-    <row r="26" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="N26" s="31"/>
+      <c r="O26" s="33"/>
+    </row>
+    <row r="27" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21" t="s">
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I27" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="J27" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="K26" s="21" t="s">
+      <c r="K27" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="L26" s="21" t="s">
+      <c r="L27" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M26" s="22" t="s">
+      <c r="M27" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-    </row>
-    <row r="27" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="N27" s="26"/>
+      <c r="O27" s="28"/>
+    </row>
+    <row r="28" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21" t="s">
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I28" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="J27" s="21" t="s">
+      <c r="J28" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="K27" s="21" t="s">
+      <c r="K28" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="L27" s="21" t="s">
+      <c r="L28" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="M28" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-    </row>
-    <row r="28" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="N28" s="31"/>
+      <c r="O28" s="33"/>
+    </row>
+    <row r="29" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20" t="s">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21" t="s">
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I29" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="J28" s="21" t="s">
+      <c r="J29" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="K28" s="21" t="s">
+      <c r="K29" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="L28" s="21" t="s">
+      <c r="L29" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="22" t="s">
+      <c r="M29" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-    </row>
-    <row r="29" spans="1:15" ht="48" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="N29" s="26"/>
+      <c r="O29" s="28"/>
+    </row>
+    <row r="30" spans="1:15" ht="48" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20" t="s">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21" t="s">
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I30" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="J29" s="21" t="s">
+      <c r="J30" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K30" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="L29" s="21" t="s">
+      <c r="L30" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="M29" s="22" t="s">
+      <c r="M30" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-    </row>
-    <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="N30" s="31"/>
+      <c r="O30" s="33"/>
+    </row>
+    <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20" t="s">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21" t="s">
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I31" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="J30" s="21" t="s">
+      <c r="J31" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="K30" s="21" t="s">
+      <c r="K31" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="L30" s="21" t="s">
+      <c r="L31" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M30" s="22" t="s">
+      <c r="M31" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-    </row>
-    <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="N31" s="26"/>
+      <c r="O31" s="28"/>
+    </row>
+    <row r="32" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21" t="s">
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="I32" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="J31" s="21" t="s">
+      <c r="J32" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="K31" s="21" t="s">
+      <c r="K32" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="L31" s="21" t="s">
+      <c r="L32" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="M31" s="22" t="s">
+      <c r="M32" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-    </row>
-    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="N32" s="31"/>
+      <c r="O32" s="33"/>
+    </row>
+    <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21" t="s">
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I33" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="J32" s="21" t="s">
+      <c r="J33" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="K32" s="21" t="s">
+      <c r="K33" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="L32" s="21" t="s">
+      <c r="L33" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M32" s="22" t="s">
+      <c r="M33" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-    </row>
-    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="N33" s="26"/>
+      <c r="O33" s="28"/>
+    </row>
+    <row r="34" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20" t="s">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21" t="s">
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I34" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="J33" s="21" t="s">
+      <c r="J34" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="K33" s="21" t="s">
+      <c r="K34" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="L33" s="21" t="s">
+      <c r="L34" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="M33" s="22" t="s">
+      <c r="M34" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-    </row>
-    <row r="34" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="N34" s="31"/>
+      <c r="O34" s="33"/>
+    </row>
+    <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21" t="s">
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I35" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="J34" s="21" t="s">
+      <c r="J35" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="K34" s="21" t="s">
+      <c r="K35" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="L34" s="21" t="s">
+      <c r="L35" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="22" t="s">
+      <c r="M35" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-    </row>
-    <row r="35" spans="1:15" ht="72" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="N35" s="26"/>
+      <c r="O35" s="28"/>
+    </row>
+    <row r="36" spans="1:15" ht="72" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20" t="s">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="21" t="s">
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I36" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="J35" s="21" t="s">
+      <c r="J36" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="K35" s="21" t="s">
+      <c r="K36" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="L35" s="21" t="s">
+      <c r="L36" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="M35" s="22" t="s">
+      <c r="M36" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-    </row>
-    <row r="36" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="N36" s="31"/>
+      <c r="O36" s="33"/>
+    </row>
+    <row r="37" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="21" t="s">
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I36" s="21" t="s">
+      <c r="I37" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="J36" s="21" t="s">
+      <c r="J37" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="K36" s="21" t="s">
+      <c r="K37" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="L36" s="21" t="s">
+      <c r="L37" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M36" s="22" t="s">
+      <c r="M37" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-    </row>
-    <row r="37" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="N37" s="26"/>
+      <c r="O37" s="28"/>
+    </row>
+    <row r="38" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20" t="s">
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="21" t="s">
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="I38" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="J37" s="21" t="s">
+      <c r="J38" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="K37" s="21" t="s">
+      <c r="K38" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="L37" s="21" t="s">
+      <c r="L38" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="M37" s="22" t="s">
+      <c r="M38" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="N37" s="21" t="s">
+      <c r="N38" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="O38" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="O37" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="165" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20" t="s">
+      <c r="J39" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="L39" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="N39" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="O39" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="21" t="s">
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="I38" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="J38" s="21" t="s">
+      <c r="I40" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="J40" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="K38" s="21" t="s">
+      <c r="K40" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="L38" s="21" t="s">
+      <c r="L40" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="M38" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="N38" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="O38" s="21" t="s">
+      <c r="M40" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="N40" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="O40" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20" t="s">
+    <row r="41" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="J41" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="K41" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L41" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="M41" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="N41" s="26"/>
+      <c r="O41" s="28"/>
+    </row>
+    <row r="42" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="J42" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="K42" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="L42" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M42" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="N42" s="31"/>
+      <c r="O42" s="33"/>
+    </row>
+    <row r="43" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="21" t="s">
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="I39" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="J39" s="21" t="s">
+      <c r="I43" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J43" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="K39" s="21" t="s">
+      <c r="K43" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="L39" s="21" t="s">
+      <c r="L43" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M39" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="N39" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="O39" s="21" t="s">
+      <c r="M43" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="N43" s="26"/>
+      <c r="O43" s="28"/>
+    </row>
+    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="J44" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="K44" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="L44" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M44" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="N44" s="31"/>
+      <c r="O44" s="33"/>
+    </row>
+    <row r="45" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="K45" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="L45" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="M45" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="N45" s="26"/>
+      <c r="O45" s="28"/>
+    </row>
+    <row r="46" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="I46" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="J46" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K46" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="L46" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M46" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="N46" s="31"/>
+      <c r="O46" s="33"/>
+    </row>
+    <row r="47" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="K47" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L47" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="M47" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="N47" s="26"/>
+      <c r="O47" s="28"/>
+    </row>
+    <row r="48" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="I48" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="J48" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K48" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="L48" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M48" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="N48" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="O48" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20" t="s">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I49" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="J49" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="K49" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="L49" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="M49" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="N49" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="O49" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="21" t="s">
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I40" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="J40" s="21" t="s">
+      <c r="I50" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="J50" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="K40" s="21" t="s">
+      <c r="K50" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="L40" s="21" t="s">
+      <c r="L50" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="M40" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-    </row>
-    <row r="41" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20" t="s">
+      <c r="M50" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="N50" s="31"/>
+      <c r="O50" s="33"/>
+    </row>
+    <row r="51" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21" t="s">
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I51" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J51" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="K51" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="L51" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="M51" s="27"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="28"/>
+    </row>
+    <row r="52" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I41" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="J41" s="21" t="s">
+      <c r="I52" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="J52" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="K41" s="21" t="s">
+      <c r="K52" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="L41" s="21" t="s">
+      <c r="L52" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="M41" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-    </row>
-    <row r="42" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20" t="s">
+      <c r="M52" s="32"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="33"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="21" t="s">
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="I42" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="J42" s="21" t="s">
+      <c r="I53" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="J53" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="K42" s="21" t="s">
+      <c r="K53" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="L42" s="21" t="s">
+      <c r="L53" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M42" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-    </row>
-    <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20" t="s">
+      <c r="M53" s="27"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="28"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="I54" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="J54" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K54" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="L54" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M54" s="32"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="33"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J55" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="K55" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="L55" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="M55" s="27"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="28"/>
+    </row>
+    <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="21" t="s">
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="I56" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="J56" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="K56" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="L56" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M56" s="32"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="33"/>
+    </row>
+    <row r="57" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I43" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="J43" s="21" t="s">
+      <c r="I57" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J57" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="K43" s="21" t="s">
+      <c r="K57" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="L43" s="21" t="s">
+      <c r="L57" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M43" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-    </row>
-    <row r="44" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="J44" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K44" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="L44" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M44" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-    </row>
-    <row r="45" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="J45" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="K45" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="L45" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M45" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-    </row>
-    <row r="46" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="J46" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="K46" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="L46" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M46" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-    </row>
-    <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="J47" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K47" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="L47" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M47" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="N47" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="O47" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I48" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="J48" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K48" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="L48" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M48" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="N48" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="O48" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="J49" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="K49" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="L49" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M49" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-    </row>
-    <row r="50" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="I50" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="J50" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="K50" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="L50" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M50" s="22"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-    </row>
-    <row r="51" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="J51" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="K51" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="L51" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M51" s="22"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I52" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="J52" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K52" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="L52" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M52" s="22"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I53" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="J53" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K53" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="L53" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M53" s="22"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I54" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="J54" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K54" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="L54" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M54" s="22"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-    </row>
-    <row r="55" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="I55" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="J55" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="K55" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="L55" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M55" s="22"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-    </row>
-    <row r="56" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I56" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="J56" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="K56" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="L56" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M56" s="22"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I57" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="J57" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K57" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="L57" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="M57" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N57" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O57" s="17" t="s">
-        <v>75</v>
-      </c>
+      <c r="M57" s="27"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="28"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B58" s="20" t="s">
         <v>25</v>
       </c>
+      <c r="C58" s="20"/>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
       <c r="H58" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="J58" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K58" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L58" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M58" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N58" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O58" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I58" s="21" t="s">
+      <c r="I59" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="J59" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="K59" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="L59" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="M59" s="27"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="28"/>
+    </row>
+    <row r="60" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="J58" s="21" t="s">
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I60" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="J60" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="K60" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="L60" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M60" s="32"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="33"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="G61" s="25"/>
+      <c r="H61" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I61" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J61" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K61" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="L61" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="M61" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="N61" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="O61" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="G62" s="30"/>
+      <c r="H62" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="I62" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="J62" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="K62" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="L62" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="M62" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="N62" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="O62" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I63" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="J63" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="K58" s="21" t="s">
+      <c r="K63" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="L58" s="21" t="s">
+      <c r="L63" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M58" s="22"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="21"/>
-    </row>
-    <row r="59" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20" t="s">
+      <c r="M63" s="27"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="28"/>
+    </row>
+    <row r="64" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="21" t="s">
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I59" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="J59" s="21" t="s">
+      <c r="I64" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="J64" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="K59" s="21" t="s">
+      <c r="K64" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="L59" s="21" t="s">
+      <c r="L64" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="M59" s="22"/>
-      <c r="N59" s="21"/>
-      <c r="O59" s="21"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20" t="s">
+      <c r="M64" s="32"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="33"/>
+    </row>
+    <row r="65" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I65" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="J65" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="K65" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="L65" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="M65" s="27"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="28"/>
+    </row>
+    <row r="66" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="21" t="s">
+      <c r="G66" s="30"/>
+      <c r="H66" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="I60" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="J60" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="K60" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="L60" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="M60" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="N60" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="O60" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20" t="s">
+      <c r="I66" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="J66" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="K66" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="L66" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M66" s="32"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="33"/>
+    </row>
+    <row r="67" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I67" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="J67" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K67" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="L67" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="M67" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="N67" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="O67" s="38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="I68" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="J68" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K68" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="L68" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M68" s="32"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="33"/>
+    </row>
+    <row r="69" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="B69" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I69" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="J69" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K69" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="L69" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="M69" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="N69" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="O69" s="38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I70" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="J70" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="K70" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="L70" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="M70" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="N70" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="O70" s="33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="84" x14ac:dyDescent="0.25">
+      <c r="A71" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I71" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="J71" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="K71" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L71" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="M71" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="N71" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="O71" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="84" x14ac:dyDescent="0.25">
+      <c r="A72" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="21" t="s">
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="I61" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="J61" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="K61" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="L61" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="M61" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="N61" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="O61" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20" t="s">
+      <c r="I72" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="J72" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K72" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="L72" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M72" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="N72" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="O72" s="33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="I62" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="J62" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="K62" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="L62" s="21" t="s">
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I73" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="J73" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="K73" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="L73" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="M73" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="N73" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="O73" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I74" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="J74" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="K74" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="L74" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="M62" s="22"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
-    </row>
-    <row r="63" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20" t="s">
+      <c r="M74" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="N74" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="O74" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A75" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I75" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="J75" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="K75" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="L75" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="M75" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="N75" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="O75" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A76" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="I76" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="J76" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K76" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="L76" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M76" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="N76" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="O76" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="B77" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="21" t="s">
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I77" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="J77" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K77" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="L77" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="M77" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="N77" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="O77" s="38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="I78" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="J78" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="K78" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="L78" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="M78" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="N78" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="O78" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I63" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="J63" s="21" t="s">
+      <c r="I79" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="J79" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="K63" s="21" t="s">
+      <c r="K79" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="L63" s="21" t="s">
+      <c r="L79" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M63" s="22"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="21"/>
-    </row>
-    <row r="64" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="21" t="s">
+      <c r="M79" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="N79" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="O79" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="I64" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="J64" s="21" t="s">
+      <c r="I80" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="J80" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="K64" s="21" t="s">
+      <c r="K80" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="L64" s="21" t="s">
+      <c r="L80" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="M64" s="22"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="21"/>
-    </row>
-    <row r="65" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G65" s="20"/>
-      <c r="H65" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I65" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="J65" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="K65" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="L65" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M65" s="22"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="21"/>
-    </row>
-    <row r="66" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I66" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="J66" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="K66" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="L66" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="M66" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="N66" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="O66" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="I67" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="J67" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="K67" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="L67" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M67" s="22"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-    </row>
-    <row r="68" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I68" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="J68" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="K68" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="L68" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="M68" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="N68" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="O68" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I69" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J69" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="K69" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="L69" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="M69" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="N69" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="O69" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="84" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I70" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="J70" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="K70" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="L70" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M70" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="N70" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="O70" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="84" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I71" s="21" t="s">
+      <c r="M80" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="N80" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="J71" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K71" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="L71" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M71" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="N71" s="21" t="s">
+      <c r="O80" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="O71" s="21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I72" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="J72" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="K72" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="L72" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="M72" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="N72" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="O72" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I73" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="J73" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="K73" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="L73" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M73" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="N73" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="O73" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I74" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="J74" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K74" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="L74" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M74" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="N74" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="O74" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I75" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="J75" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K75" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="L75" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M75" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="N75" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="O75" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="B76" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I76" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="J76" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="K76" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="L76" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="M76" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="N76" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="O76" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="I77" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J77" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="K77" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="L77" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="M77" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="N77" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="O77" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I78" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="J78" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="K78" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="L78" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M78" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="N78" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="O78" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I79" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="J79" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K79" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="L79" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M79" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="N79" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="O79" s="21" t="s">
-        <v>264</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O79" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="17" scale="71" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="17" scale="63" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CPage &amp;P of &amp;N&amp;RVersion 3.0</oddFooter>
   </headerFooter>
@@ -5047,10 +5133,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A2:O5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5068,198 +5154,198 @@
     <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3">
-        <v>1</v>
-      </c>
-      <c r="O2" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3">
+        <v>2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H5" s="3">
         <v>3</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I5" s="3">
         <v>3</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J5" s="3">
         <v>3</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K5" s="3">
         <v>3</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L5" s="3">
         <v>3</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M5" s="3">
         <v>3</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N5" s="3">
         <v>3</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O5" s="3">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A2:O2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="17" scale="71" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="17" scale="39" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CPage &amp;P of &amp;N&amp;RVersion 2.0</oddFooter>
   </headerFooter>
@@ -5268,10 +5354,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F75445-3309-40FF-A033-8608838D7335}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5283,58 +5369,49 @@
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>A2+1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A11" si="0">A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="A5:A12" si="0">A4+1</f>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -5343,7 +5420,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -5352,61 +5429,70 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
+      <c r="C8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
-        <f>2*4</f>
-        <v>8</v>
+      <c r="C10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11">
+        <f>2*4</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5418,67 +5504,67 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E10630-D1E9-46DB-98CF-4A34D3F758E6}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>3</v>
       </c>
     </row>
@@ -5489,10 +5575,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34283C52-A606-4A91-BE38-3A1E2EFABC11}">
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A2:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5513,346 +5599,287 @@
     <col min="26" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" ht="148.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="2" spans="1:27" s="4" customFormat="1" ht="148.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="F2" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="7" t="s">
+      <c r="N2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="R1" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="U1" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="X1" s="4" t="s">
+      <c r="W2" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA2" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="Y1" s="4" t="s">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" t="s">
         <v>310</v>
       </c>
-      <c r="Z1" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AA1" s="13" t="s">
+      <c r="X3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>B3+1</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>A3</f>
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="14" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>-1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" t="s">
-        <v>313</v>
-      </c>
-      <c r="X2" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y2" s="10" t="s">
+      <c r="W4" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y4" t="s">
         <v>302</v>
       </c>
-      <c r="Z2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>A2+1</f>
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f>B2+1</f>
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f>A2</f>
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="W3" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:B26" si="0">A3+1</f>
+      <c r="Z4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ref="A5:B27" si="0">A4+1</f>
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C7" si="1">A3</f>
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="C5">
+        <f t="shared" ref="C5:C8" si="1">A4</f>
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="M5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U5" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="W4" t="s">
-        <v>307</v>
-      </c>
-      <c r="Z4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U5" t="s">
-        <v>45</v>
-      </c>
-      <c r="V5" s="29" t="s">
-        <v>316</v>
+      <c r="V5" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="W5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Z5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AA5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -5870,48 +5897,48 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="U6" t="s">
-        <v>101</v>
-      </c>
-      <c r="V6" s="29" t="s">
-        <v>299</v>
+        <v>45</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>313</v>
       </c>
       <c r="W6" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="Z6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AA6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -5920,7 +5947,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -5935,19 +5962,22 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="U7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" s="29" t="s">
-        <v>300</v>
+      <c r="V7" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="W7" t="s">
+        <v>311</v>
       </c>
       <c r="Z7" s="1" t="b">
         <v>1</v>
@@ -5959,14 +5989,14 @@
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <f>B7</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C8">
-        <f>A6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D8" t="b">
@@ -5976,10 +6006,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>1</v>
@@ -5988,21 +6018,23 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="U8" t="s">
-        <v>39</v>
-      </c>
-      <c r="V8" s="29"/>
+        <v>101</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>297</v>
+      </c>
       <c r="Z8" s="1" t="b">
         <v>1</v>
       </c>
@@ -6013,16 +6045,16 @@
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <f>B6</f>
+        <f>B8</f>
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f>A7</f>
         <v>4</v>
       </c>
-      <c r="C9">
-        <f>C6</f>
-        <v>3</v>
-      </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
@@ -6033,26 +6065,30 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="L9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="S9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="14"/>
       <c r="Z9" s="1" t="b">
         <v>1</v>
       </c>
@@ -6063,26 +6099,31 @@
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <f>B7</f>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <f>C7</f>
+        <v>3</v>
       </c>
       <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J10" s="1" t="b">
         <v>1</v>
       </c>
@@ -6090,13 +6131,13 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="U10" t="s">
-        <v>101</v>
+      <c r="R10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="Z10" s="1" t="b">
         <v>1</v>
@@ -6108,20 +6149,16 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <f>C5</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -6130,7 +6167,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="b">
         <v>1</v>
@@ -6139,16 +6176,13 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V11" t="s">
-        <v>301</v>
+      <c r="U11" t="s">
+        <v>101</v>
       </c>
       <c r="Z11" s="1" t="b">
         <v>1</v>
@@ -6160,15 +6194,15 @@
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <f>C6</f>
         <v>2</v>
       </c>
-      <c r="C12">
-        <f>C4</f>
-        <v>1</v>
-      </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
@@ -6182,25 +6216,25 @@
         <v>1</v>
       </c>
       <c r="I12" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K12" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U12" t="s">
-        <v>39</v>
+      <c r="V12" t="s">
+        <v>298</v>
       </c>
       <c r="Z12" s="1" t="b">
         <v>1</v>
@@ -6212,46 +6246,47 @@
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f>C5</f>
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>-1</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="L13" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V13" s="29" t="s">
-        <v>317</v>
+      <c r="U13" t="s">
+        <v>39</v>
       </c>
       <c r="Z13" s="1" t="b">
         <v>1</v>
@@ -6263,10 +6298,10 @@
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>-1</v>
@@ -6284,25 +6319,25 @@
         <v>1</v>
       </c>
       <c r="I14" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K14" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M14" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U14" t="s">
-        <v>39</v>
+      <c r="V14" s="14" t="s">
+        <v>314</v>
       </c>
       <c r="Z14" s="1" t="b">
         <v>1</v>
@@ -6314,10 +6349,10 @@
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -6335,25 +6370,25 @@
         <v>1</v>
       </c>
       <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="L15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V15" t="s">
-        <v>303</v>
+      <c r="U15" t="s">
+        <v>39</v>
       </c>
       <c r="Z15" s="1" t="b">
         <v>1</v>
@@ -6365,10 +6400,10 @@
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>-1</v>
@@ -6386,25 +6421,25 @@
         <v>1</v>
       </c>
       <c r="I16" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K16" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U16" t="s">
-        <v>39</v>
+      <c r="V16" t="s">
+        <v>300</v>
       </c>
       <c r="Z16" s="1" t="b">
         <v>1</v>
@@ -6416,13 +6451,13 @@
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="12">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -6443,19 +6478,19 @@
         <v>1</v>
       </c>
       <c r="K17" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="U17" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="Z17" s="1" t="b">
         <v>1</v>
@@ -6467,16 +6502,19 @@
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>-1</v>
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12">
+        <v>11</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -6488,19 +6526,22 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M18" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="O18" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="U18" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="Z18" s="1" t="b">
         <v>1</v>
@@ -6512,19 +6553,16 @@
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -6536,28 +6574,22 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="U19" t="s">
-        <v>101</v>
-      </c>
-      <c r="V19" t="s">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="Z19" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19" t="b">
         <v>1</v>
@@ -6566,38 +6598,37 @@
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20">
-        <f>C19</f>
         <v>15</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="L20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M20" s="1" t="b">
         <v>1</v>
@@ -6605,11 +6636,11 @@
       <c r="P20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>25</v>
+      <c r="U20" t="s">
+        <v>101</v>
       </c>
       <c r="V20" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Z20" s="1" t="b">
         <v>0</v>
@@ -6621,23 +6652,23 @@
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <f>A20</f>
-        <v>18</v>
+        <f>C20</f>
+        <v>15</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -6652,16 +6683,22 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M21" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="V21" t="s">
+        <v>316</v>
+      </c>
       <c r="Z21" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="b">
         <v>1</v>
@@ -6670,14 +6707,14 @@
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <f>C17</f>
-        <v>11</v>
+        <f>A21</f>
+        <v>18</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -6686,13 +6723,13 @@
         <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="I22" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="b">
         <v>1</v>
@@ -6701,16 +6738,13 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="U22" t="s">
-        <v>41</v>
       </c>
       <c r="Z22" s="1" t="b">
         <v>1</v>
@@ -6722,14 +6756,14 @@
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <f>A22</f>
-        <v>20</v>
+        <f>C18</f>
+        <v>11</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -6741,10 +6775,10 @@
         <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1" t="b">
         <v>1</v>
@@ -6753,13 +6787,16 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M23" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>38</v>
+      <c r="O23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U23" t="s">
+        <v>41</v>
       </c>
       <c r="Z23" s="1" t="b">
         <v>1</v>
@@ -6771,14 +6808,14 @@
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:C26" si="2">A23</f>
-        <v>21</v>
+        <f>A23</f>
+        <v>20</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -6790,7 +6827,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1" t="b">
         <v>0</v>
@@ -6802,13 +6839,13 @@
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M24" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>25</v>
+      <c r="P24" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="Z24" s="1" t="b">
         <v>1</v>
@@ -6820,14 +6857,14 @@
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f t="shared" ref="C25:C27" si="2">A24</f>
+        <v>21</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -6851,35 +6888,32 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M25" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="Q25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V25" t="s">
-        <v>320</v>
-      </c>
       <c r="Z25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AA25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -6888,7 +6922,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -6903,23 +6937,75 @@
         <v>1</v>
       </c>
       <c r="L26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V26" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="S26" s="1" t="s">
+      <c r="M27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA26" t="b">
+      <c r="Z27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA27" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:K26">
+  <conditionalFormatting sqref="I3:K27">
     <cfRule type="iconSet" priority="3">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -6938,7 +7024,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z26">
+  <conditionalFormatting sqref="Z3:Z27">
     <cfRule type="iconSet" priority="1">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -6964,10 +7050,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10D0E2C-1B2C-4DA2-B0A4-E7A32A693220}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6976,38 +7062,38 @@
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>A2+1</f>
-        <v>1</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4" si="0">A3+1</f>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ref="A5" si="0">A4+1</f>
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>294</v>
+      <c r="B5" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -7016,26 +7102,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Deliverable xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <Workstream xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <Project xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <OpCo xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <SharedWithUsers xmlns="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <Archive xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <MovetoWorkstream_x003f_ xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7044,7 +7110,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B2369C55104614D86A5ED6959977478" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c0e7eb4f9a047313f41567777b26d1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e53f4f12-70f6-49ff-8342-256ad4d5af45" xmlns:ns3="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21513b83e70fc08b789b5f083b414370" ns2:_="" ns3:_="">
     <xsd:import namespace="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
@@ -7323,24 +7389,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6B224B-0E2C-48D8-BDA5-831DA84116C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b"/>
-    <ds:schemaRef ds:uri="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Deliverable xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <Workstream xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <Project xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <OpCo xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <SharedWithUsers xmlns="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <Archive xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <MovetoWorkstream_x003f_ xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EA3E94-102E-42ED-8307-567DE6417681}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -7348,7 +7417,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB17CD09-13F0-4BBC-ACF0-5247DAC323D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7365,4 +7434,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6B224B-0E2C-48D8-BDA5-831DA84116C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b"/>
+    <ds:schemaRef ds:uri="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests/test_rtm.xlsx
+++ b/tests/test_rtm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchukina\projects\rtm\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6551465-603A-437C-920F-8BB2BC982D9B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B976C7-04BB-48F3-8215-AEF64A100675}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1592,7 +1592,7 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1709,9 +1709,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2328,9 +2325,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O80"/>
+  <dimension ref="A2:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2347,9 +2346,6 @@
     <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43"/>
-    </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>

--- a/tests/test_rtm.xlsx
+++ b/tests/test_rtm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchukina\projects\rtm\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6551465-603A-437C-920F-8BB2BC982D9B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D9BF3D-9E45-4FA2-B5C3-9F8DF71B9146}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_worksheet" sheetId="21" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="328">
   <si>
     <t>ID</t>
   </si>
@@ -1258,6 +1258,9 @@
 Crest length
 Overall length</t>
     </r>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -2054,7 +2057,7 @@
   </sheetPr>
   <dimension ref="A2:O5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -2330,7 +2333,9 @@
   </sheetPr>
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2350,8 +2355,8 @@
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43"/>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -5354,145 +5359,148 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F75445-3309-40FF-A033-8608838D7335}">
-  <dimension ref="A2:E12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f>A3+1</f>
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>B2+1</f>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="str">
+      <c r="D3" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" ref="A5:A12" si="0">A4+1</f>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f t="shared" ref="B4:B11" si="0">B3+1</f>
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="D7">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
+      <c r="D10">
         <f>2*4</f>
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5504,67 +5512,70 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E10630-D1E9-46DB-98CF-4A34D3F758E6}">
-  <dimension ref="A2:D5"/>
+  <dimension ref="B3:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="F3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="E5">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="E6">
         <v>3</v>
       </c>
     </row>
@@ -5575,126 +5586,126 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34283C52-A606-4A91-BE38-3A1E2EFABC11}">
-  <dimension ref="A2:AA27"/>
+  <dimension ref="A2:AB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="1" customWidth="1"/>
-    <col min="14" max="19" width="4.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="25" customWidth="1"/>
-    <col min="22" max="22" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" customWidth="1"/>
-    <col min="25" max="25" width="12" customWidth="1"/>
-    <col min="26" max="26" width="8.5703125" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" style="1" customWidth="1"/>
+    <col min="15" max="20" width="4.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="25" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" s="4" customFormat="1" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="4" customFormat="1" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="O2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="AA2" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AB2" s="13" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>-1</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
@@ -5704,7 +5715,7 @@
       <c r="G3" t="b">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="b">
+      <c r="H3" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="b">
@@ -5713,60 +5724,60 @@
       <c r="K3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>39</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>310</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>295</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Z3" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="Z3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f>A3+1</f>
-        <v>1</v>
-      </c>
+      <c r="AA3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>B3+1</f>
         <v>1</v>
       </c>
       <c r="C4">
-        <f>A3</f>
+        <f>C3+1</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>B3</f>
         <v>0</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
       <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="1" t="b">
+      <c r="H4" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="b">
@@ -5775,54 +5786,54 @@
       <c r="K4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="N4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="W4" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>303</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>302</v>
       </c>
-      <c r="Z4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" ref="A5:B27" si="0">A4+1</f>
+      <c r="AA4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f t="shared" ref="B5:C27" si="0">B4+1</f>
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C8" si="1">A4</f>
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
+      <c r="D5">
+        <f t="shared" ref="D5:D8" si="1">B4</f>
         <v>1</v>
       </c>
       <c r="E5" t="b">
@@ -5834,7 +5845,7 @@
       <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="1" t="b">
+      <c r="H5" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="1" t="b">
@@ -5843,47 +5854,47 @@
       <c r="K5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="N5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="W5" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>304</v>
       </c>
-      <c r="Z5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="AA5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
@@ -5893,56 +5904,56 @@
       <c r="G6" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="1" t="b">
+      <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+      <c r="N6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>45</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="W6" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>305</v>
       </c>
-      <c r="Z6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA6" t="b">
+      <c r="AA6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
@@ -5952,7 +5963,7 @@
       <c r="G7" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="1" t="b">
+      <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="J7" s="1" t="b">
@@ -5961,57 +5972,57 @@
       <c r="K7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="N7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="W7" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>311</v>
       </c>
-      <c r="Z7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="AA7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
         <v>0</v>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="b">
+      <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="J8" s="1" t="b">
@@ -6020,44 +6031,44 @@
       <c r="K8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
         <v>54</v>
       </c>
-      <c r="M8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="S8" s="1" t="s">
+      <c r="N8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>101</v>
       </c>
-      <c r="V8" s="14" t="s">
+      <c r="W8" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="Z8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="AA8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9">
-        <f>B8</f>
+      <c r="C9">
+        <f>C8</f>
         <v>5</v>
       </c>
-      <c r="C9">
-        <f>A7</f>
+      <c r="D9">
+        <f>B7</f>
         <v>4</v>
       </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
@@ -6065,53 +6076,53 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
         <v>0</v>
       </c>
-      <c r="I9" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="S9" s="1" t="s">
+      <c r="N9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>39</v>
       </c>
-      <c r="V9" s="14"/>
-      <c r="Z9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="W9" s="14"/>
+      <c r="AA9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10">
-        <f>B7</f>
-        <v>4</v>
-      </c>
       <c r="C10">
         <f>C7</f>
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f>D7</f>
         <v>3</v>
       </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
@@ -6121,52 +6132,52 @@
       <c r="G10" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="1" t="b">
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J10" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R10" s="1" t="s">
+      <c r="N10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="AA10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-1</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="1" t="b">
+      <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="J11" s="1" t="b">
@@ -6175,37 +6186,37 @@
       <c r="K11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="N11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="V11" t="s">
         <v>101</v>
       </c>
-      <c r="Z11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="AA11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="C12">
-        <f>C6</f>
+      <c r="D12">
+        <f>D6</f>
         <v>2</v>
       </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
@@ -6215,47 +6226,47 @@
       <c r="G12" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="1" t="b">
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
         <v>58</v>
       </c>
-      <c r="M12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1" t="s">
+      <c r="N12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>298</v>
       </c>
-      <c r="Z12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="AA12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="C13">
-        <f>C5</f>
-        <v>1</v>
-      </c>
-      <c r="D13" t="b">
+      <c r="D13">
+        <f>D5</f>
         <v>1</v>
       </c>
       <c r="E13" t="b">
@@ -6267,48 +6278,48 @@
       <c r="G13" t="b">
         <v>1</v>
       </c>
-      <c r="I13" s="1" t="b">
+      <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>59</v>
       </c>
-      <c r="M13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1" t="s">
+      <c r="N13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>39</v>
       </c>
-      <c r="Z13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="AA13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-1</v>
       </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
@@ -6318,48 +6329,48 @@
       <c r="G14" t="b">
         <v>1</v>
       </c>
-      <c r="I14" s="1" t="b">
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K14" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
         <v>49</v>
       </c>
-      <c r="M14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V14" s="14" t="s">
+      <c r="W14" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="Z14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="AA14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-1</v>
       </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
@@ -6369,48 +6380,48 @@
       <c r="G15" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="1" t="b">
+      <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="J15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="1" t="s">
+      <c r="N15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>39</v>
       </c>
-      <c r="Z15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="AA15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-1</v>
       </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
@@ -6420,48 +6431,48 @@
       <c r="G16" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="1" t="b">
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
         <v>61</v>
       </c>
-      <c r="M16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1" t="s">
+      <c r="N16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>300</v>
       </c>
-      <c r="Z16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="AA16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-1</v>
       </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
@@ -6471,48 +6482,48 @@
       <c r="G17" t="b">
         <v>1</v>
       </c>
-      <c r="I17" s="1" t="b">
+      <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="J17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R17" s="1" t="s">
+      <c r="N17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>39</v>
       </c>
-      <c r="Z17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="AA17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12">
         <v>11</v>
       </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
@@ -6522,7 +6533,7 @@
       <c r="G18" t="b">
         <v>1</v>
       </c>
-      <c r="I18" s="1" t="b">
+      <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="J18" s="1" t="b">
@@ -6531,84 +6542,84 @@
       <c r="K18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
         <v>63</v>
       </c>
-      <c r="M18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="N18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>87</v>
       </c>
-      <c r="Z18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="AA18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B19">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-1</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
-      <c r="I19" s="1" t="b">
+      <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="L19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
         <v>64</v>
       </c>
-      <c r="M19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="N19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
         <v>45</v>
       </c>
-      <c r="Z19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="AA19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B20">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>15</v>
       </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
@@ -6618,156 +6629,156 @@
       <c r="G20" t="b">
         <v>1</v>
       </c>
-      <c r="I20" s="1" t="b">
+      <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>65</v>
       </c>
-      <c r="M20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P20" s="1" t="s">
+      <c r="N20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>101</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>315</v>
       </c>
-      <c r="Z20" s="1" t="b">
+      <c r="AA20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AA20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="AB20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="C21">
-        <f>C20</f>
+      <c r="D21">
+        <f>D20</f>
         <v>15</v>
       </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
       <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
         <v>0</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
-      <c r="I21" s="1" t="b">
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J21" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
         <v>66</v>
       </c>
-      <c r="M21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>25</v>
+      <c r="N21" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V21" t="s">
+      <c r="R21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W21" t="s">
         <v>316</v>
       </c>
-      <c r="Z21" s="1" t="b">
+      <c r="AA21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AA21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="AB21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>3</v>
       </c>
-      <c r="C22">
-        <f>A21</f>
+      <c r="D22">
+        <f>B21</f>
         <v>18</v>
       </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
         <v>0</v>
       </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1" t="b">
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J22" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
         <v>67</v>
       </c>
-      <c r="M22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="1" t="s">
+      <c r="N22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="AA22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
       <c r="C23">
-        <f>C18</f>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f>D18</f>
         <v>11</v>
       </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
@@ -6777,7 +6788,7 @@
       <c r="G23" t="b">
         <v>1</v>
       </c>
-      <c r="I23" s="1" t="b">
+      <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="J23" s="1" t="b">
@@ -6786,40 +6797,40 @@
       <c r="K23" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O23" s="1" t="s">
+      <c r="N23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>41</v>
       </c>
-      <c r="Z23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="AA23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B24">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="C24">
-        <f>A23</f>
+      <c r="D24">
+        <f>B23</f>
         <v>20</v>
       </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
@@ -6827,48 +6838,48 @@
         <v>1</v>
       </c>
       <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
         <v>0</v>
       </c>
-      <c r="I24" s="1" t="b">
+      <c r="J24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J24" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K24" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
         <v>69</v>
       </c>
-      <c r="M24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P24" s="1" t="s">
+      <c r="N24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Z24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="AA24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>3</v>
       </c>
-      <c r="C25">
-        <f t="shared" ref="C25:C27" si="2">A24</f>
+      <c r="D25">
+        <f t="shared" ref="D25:D27" si="2">B24</f>
         <v>21</v>
       </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
@@ -6878,46 +6889,46 @@
       <c r="G25" t="b">
         <v>1</v>
       </c>
-      <c r="I25" s="1" t="b">
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J25" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K25" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
         <v>70</v>
       </c>
-      <c r="M25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="1" t="s">
+      <c r="N25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="AA25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B26">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>4</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
@@ -6927,85 +6938,88 @@
       <c r="G26" t="b">
         <v>1</v>
       </c>
-      <c r="I26" s="1" t="b">
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J26" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K26" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
         <v>71</v>
       </c>
-      <c r="M26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R26" s="1" t="s">
+      <c r="N26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>317</v>
       </c>
-      <c r="Z26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA26" t="b">
+      <c r="AA26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B27">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>5</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
         <v>0</v>
       </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1" t="b">
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J27" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
         <v>72</v>
       </c>
-      <c r="M27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="S27" s="1" t="s">
+      <c r="N27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA27" t="b">
+      <c r="AA27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I3:K27">
+  <conditionalFormatting sqref="J3:L27">
     <cfRule type="iconSet" priority="3">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -7024,7 +7038,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z27">
+  <conditionalFormatting sqref="AA3:AA27">
     <cfRule type="iconSet" priority="1">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -7050,10 +7064,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10D0E2C-1B2C-4DA2-B0A4-E7A32A693220}">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7062,15 +7076,18 @@
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>289</v>
       </c>
       <c r="B2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -7078,7 +7095,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+1</f>
         <v>1</v>
@@ -7087,7 +7104,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ref="A5" si="0">A4+1</f>
         <v>2</v>
@@ -7111,6 +7128,26 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Deliverable xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <Workstream xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <Project xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <OpCo xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <SharedWithUsers xmlns="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <Archive xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <MovetoWorkstream_x003f_ xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B2369C55104614D86A5ED6959977478" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c0e7eb4f9a047313f41567777b26d1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e53f4f12-70f6-49ff-8342-256ad4d5af45" xmlns:ns3="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21513b83e70fc08b789b5f083b414370" ns2:_="" ns3:_="">
     <xsd:import namespace="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
@@ -7389,26 +7426,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Deliverable xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <Workstream xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <Project xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <OpCo xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <SharedWithUsers xmlns="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <Archive xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <MovetoWorkstream_x003f_ xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EA3E94-102E-42ED-8307-567DE6417681}">
   <ds:schemaRefs>
@@ -7418,6 +7435,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6B224B-0E2C-48D8-BDA5-831DA84116C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b"/>
+    <ds:schemaRef ds:uri="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB17CD09-13F0-4BBC-ACF0-5247DAC323D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7434,21 +7468,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6B224B-0E2C-48D8-BDA5-831DA84116C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b"/>
-    <ds:schemaRef ds:uri="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tests/test_rtm.xlsx
+++ b/tests/test_rtm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchukina\projects\rtm\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D9BF3D-9E45-4FA2-B5C3-9F8DF71B9146}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6062301-B89F-4F22-8EEA-6252C59170D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_worksheet" sheetId="21" r:id="rId1"/>
@@ -2057,7 +2057,7 @@
   </sheetPr>
   <dimension ref="A2:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -5514,8 +5514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E10630-D1E9-46DB-98CF-4A34D3F758E6}">
   <dimension ref="B3:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5550,6 +5550,9 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -5564,6 +5567,9 @@
       <c r="E5">
         <v>2</v>
       </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -5576,6 +5582,9 @@
         <v>3</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
     </row>
@@ -7119,35 +7128,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Deliverable xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <Workstream xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <Project xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <OpCo xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <SharedWithUsers xmlns="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <Archive xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <MovetoWorkstream_x003f_ xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B2369C55104614D86A5ED6959977478" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c0e7eb4f9a047313f41567777b26d1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e53f4f12-70f6-49ff-8342-256ad4d5af45" xmlns:ns3="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21513b83e70fc08b789b5f083b414370" ns2:_="" ns3:_="">
     <xsd:import namespace="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
@@ -7426,10 +7406,50 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Deliverable xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <Workstream xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <Project xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <OpCo xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <SharedWithUsers xmlns="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <Archive xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <MovetoWorkstream_x003f_ xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EA3E94-102E-42ED-8307-567DE6417681}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB17CD09-13F0-4BBC-ACF0-5247DAC323D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
+    <ds:schemaRef ds:uri="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7452,20 +7472,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB17CD09-13F0-4BBC-ACF0-5247DAC323D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EA3E94-102E-42ED-8307-567DE6417681}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
-    <ds:schemaRef ds:uri="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tests/test_rtm.xlsx
+++ b/tests/test_rtm.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchukina\projects\rtm\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B976C7-04BB-48F3-8215-AEF64A100675}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D19E0A-F036-46D1-8020-B83D0A1D12D5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_worksheet" sheetId="21" r:id="rId1"/>
     <sheet name="Procedure Based Requirements" sheetId="27" r:id="rId2"/>
-    <sheet name="Procedure Based Requirements2" sheetId="22" r:id="rId3"/>
-    <sheet name="test_validation" sheetId="23" r:id="rId4"/>
-    <sheet name="nonsense_fields" sheetId="26" r:id="rId5"/>
-    <sheet name="cascade" sheetId="25" r:id="rId6"/>
-    <sheet name="tags" sheetId="28" r:id="rId7"/>
+    <sheet name="pandas_experiment" sheetId="29" r:id="rId3"/>
+    <sheet name="Procedure Based Requirements2" sheetId="22" r:id="rId4"/>
+    <sheet name="test_validation" sheetId="23" r:id="rId5"/>
+    <sheet name="nonsense_fields" sheetId="26" r:id="rId6"/>
+    <sheet name="cascade" sheetId="25" r:id="rId7"/>
+    <sheet name="tags" sheetId="28" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Procedure Based Requirements'!$A$2:$O$80</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Procedure Based Requirements2'!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Procedure Based Requirements2'!$A$2:$O$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">test_worksheet!$A$2:$O$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="338">
   <si>
     <t>ID</t>
   </si>
@@ -1258,6 +1259,39 @@
 Crest length
 Overall length</t>
     </r>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>bye</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>bye1</t>
+  </si>
+  <si>
+    <t>bye2</t>
+  </si>
+  <si>
+    <t>bye3</t>
+  </si>
+  <si>
+    <t>bye14</t>
+  </si>
+  <si>
+    <t>bye15</t>
+  </si>
+  <si>
+    <t>bye16</t>
   </si>
 </sst>
 </file>
@@ -2327,7 +2361,7 @@
   </sheetPr>
   <dimension ref="A2:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -5125,6 +5159,77 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5130B73-D7FF-4016-BA55-6FA2C744F3EA}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B51914-4951-4CB5-B02A-D6D464BC6724}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5348,7 +5453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F75445-3309-40FF-A033-8608838D7335}">
   <dimension ref="A2:E12"/>
   <sheetViews>
@@ -5498,7 +5603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E10630-D1E9-46DB-98CF-4A34D3F758E6}">
   <dimension ref="A2:D5"/>
   <sheetViews>
@@ -5569,7 +5674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34283C52-A606-4A91-BE38-3A1E2EFABC11}">
   <dimension ref="A2:AA27"/>
   <sheetViews>
@@ -7044,7 +7149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10D0E2C-1B2C-4DA2-B0A4-E7A32A693220}">
   <dimension ref="A2:B5"/>
   <sheetViews>

--- a/tests/test_rtm.xlsx
+++ b/tests/test_rtm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchukina\projects\rtm\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D19E0A-F036-46D1-8020-B83D0A1D12D5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7250D4-C218-48F0-BBEC-1517A2EA3E9A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_worksheet" sheetId="21" r:id="rId1"/>
@@ -1261,9 +1261,6 @@
     </r>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>bye</t>
   </si>
   <si>
@@ -1276,22 +1273,25 @@
     <t>c</t>
   </si>
   <si>
-    <t>bye1</t>
-  </si>
-  <si>
-    <t>bye2</t>
-  </si>
-  <si>
-    <t>bye3</t>
-  </si>
-  <si>
-    <t>bye14</t>
-  </si>
-  <si>
-    <t>bye15</t>
-  </si>
-  <si>
-    <t>bye16</t>
+    <t>fdsa</t>
+  </si>
+  <si>
+    <t>fsda</t>
+  </si>
+  <si>
+    <t>fds</t>
+  </si>
+  <si>
+    <t>jona</t>
+  </si>
+  <si>
+    <t>nic</t>
+  </si>
+  <si>
+    <t>kri</t>
+  </si>
+  <si>
+    <t>sappy</t>
   </si>
 </sst>
 </file>
@@ -5160,68 +5160,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5130B73-D7FF-4016-BA55-6FA2C744F3EA}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="B3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" t="s">
         <v>327</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>328</v>
       </c>
-      <c r="D1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>329</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F7" t="s">
         <v>332</v>
-      </c>
-      <c r="D2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C4" t="s">
-        <v>334</v>
-      </c>
-      <c r="D4" t="s">
-        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -7212,6 +7212,26 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Deliverable xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <Workstream xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <Project xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <OpCo xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <SharedWithUsers xmlns="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <Archive xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+    <MovetoWorkstream_x003f_ xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B2369C55104614D86A5ED6959977478" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c0e7eb4f9a047313f41567777b26d1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e53f4f12-70f6-49ff-8342-256ad4d5af45" xmlns:ns3="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21513b83e70fc08b789b5f083b414370" ns2:_="" ns3:_="">
     <xsd:import namespace="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
@@ -7490,26 +7510,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Deliverable xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <Workstream xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <Project xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <OpCo xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <SharedWithUsers xmlns="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <Archive xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-    <MovetoWorkstream_x003f_ xmlns="e53f4f12-70f6-49ff-8342-256ad4d5af45" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EA3E94-102E-42ED-8307-567DE6417681}">
   <ds:schemaRefs>
@@ -7519,6 +7519,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6B224B-0E2C-48D8-BDA5-831DA84116C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b"/>
+    <ds:schemaRef ds:uri="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB17CD09-13F0-4BBC-ACF0-5247DAC323D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7535,21 +7552,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6B224B-0E2C-48D8-BDA5-831DA84116C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="4f4d318f-1e15-433d-b7fd-4a4fd8f11b5b"/>
-    <ds:schemaRef ds:uri="e53f4f12-70f6-49ff-8342-256ad4d5af45"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>